--- a/Memory_conditionSheet.xlsx
+++ b/Memory_conditionSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85f70a34574754f4/Documents/GitHub/MemoryExperiment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Psychology\Documents\ABExperiment\MemoryStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{DB38ADED-18EB-4989-A55A-B5D6B075254C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F59E3C88-21F8-415E-91A9-208C919F0FF8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31EAC633-A2F9-4A72-B06C-86A4F90DFC06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E9602F8A-2D14-4085-AA02-D15885EBB7A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E9602F8A-2D14-4085-AA02-D15885EBB7A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="575">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3185" uniqueCount="578">
   <si>
     <t>TrialType</t>
   </si>
@@ -1760,6 +1760,15 @@
   </si>
   <si>
     <t>dvdbox</t>
+  </si>
+  <si>
+    <t>FilePath</t>
+  </si>
+  <si>
+    <t>C:\\Users\\Psychology\\Documents\\ABExperiment\\MemoryStudy\\resources\\JPG\\</t>
+  </si>
+  <si>
+    <t>NoneType</t>
   </si>
 </sst>
 </file>
@@ -2142,15 +2151,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0DB8253-31B4-402E-BEDD-4AEB7ED8A17A}">
-  <dimension ref="A1:F566"/>
+  <dimension ref="A1:G566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A333" workbookViewId="0">
-      <selection activeCell="F344" sqref="F344"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="78.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2169,8 +2184,11 @@
       <c r="F1" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2189,8 +2207,11 @@
       <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2210,7 +2231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2230,7 +2251,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -2250,7 +2271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -2270,7 +2291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -2290,7 +2311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -2310,7 +2331,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -2330,7 +2351,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -2350,7 +2371,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -2370,7 +2391,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -2390,7 +2411,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
@@ -2410,7 +2431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -2430,7 +2451,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -2450,7 +2471,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -6314,9 +6335,18 @@
       <c r="A209" t="s">
         <v>1</v>
       </c>
+      <c r="B209" t="s">
+        <v>577</v>
+      </c>
       <c r="C209" t="s">
         <v>214</v>
       </c>
+      <c r="D209" t="s">
+        <v>577</v>
+      </c>
+      <c r="E209" t="s">
+        <v>577</v>
+      </c>
       <c r="F209" t="s">
         <v>216</v>
       </c>
@@ -6325,9 +6355,18 @@
       <c r="A210" t="s">
         <v>1</v>
       </c>
+      <c r="B210" t="s">
+        <v>577</v>
+      </c>
       <c r="C210" t="s">
         <v>214</v>
       </c>
+      <c r="D210" t="s">
+        <v>577</v>
+      </c>
+      <c r="E210" t="s">
+        <v>577</v>
+      </c>
       <c r="F210" t="s">
         <v>217</v>
       </c>
@@ -6336,9 +6375,18 @@
       <c r="A211" t="s">
         <v>1</v>
       </c>
+      <c r="B211" t="s">
+        <v>577</v>
+      </c>
       <c r="C211" t="s">
         <v>214</v>
       </c>
+      <c r="D211" t="s">
+        <v>577</v>
+      </c>
+      <c r="E211" t="s">
+        <v>577</v>
+      </c>
       <c r="F211" t="s">
         <v>218</v>
       </c>
@@ -6347,9 +6395,18 @@
       <c r="A212" t="s">
         <v>1</v>
       </c>
+      <c r="B212" t="s">
+        <v>577</v>
+      </c>
       <c r="C212" t="s">
         <v>214</v>
       </c>
+      <c r="D212" t="s">
+        <v>577</v>
+      </c>
+      <c r="E212" t="s">
+        <v>577</v>
+      </c>
       <c r="F212" t="s">
         <v>219</v>
       </c>
@@ -6358,9 +6415,18 @@
       <c r="A213" t="s">
         <v>1</v>
       </c>
+      <c r="B213" t="s">
+        <v>577</v>
+      </c>
       <c r="C213" t="s">
         <v>214</v>
       </c>
+      <c r="D213" t="s">
+        <v>577</v>
+      </c>
+      <c r="E213" t="s">
+        <v>577</v>
+      </c>
       <c r="F213" t="s">
         <v>220</v>
       </c>
@@ -6369,9 +6435,18 @@
       <c r="A214" t="s">
         <v>1</v>
       </c>
+      <c r="B214" t="s">
+        <v>577</v>
+      </c>
       <c r="C214" t="s">
         <v>214</v>
       </c>
+      <c r="D214" t="s">
+        <v>577</v>
+      </c>
+      <c r="E214" t="s">
+        <v>577</v>
+      </c>
       <c r="F214" t="s">
         <v>221</v>
       </c>
@@ -6380,9 +6455,18 @@
       <c r="A215" t="s">
         <v>1</v>
       </c>
+      <c r="B215" t="s">
+        <v>577</v>
+      </c>
       <c r="C215" t="s">
         <v>214</v>
       </c>
+      <c r="D215" t="s">
+        <v>577</v>
+      </c>
+      <c r="E215" t="s">
+        <v>577</v>
+      </c>
       <c r="F215" t="s">
         <v>222</v>
       </c>
@@ -6391,9 +6475,18 @@
       <c r="A216" t="s">
         <v>1</v>
       </c>
+      <c r="B216" t="s">
+        <v>577</v>
+      </c>
       <c r="C216" t="s">
         <v>214</v>
       </c>
+      <c r="D216" t="s">
+        <v>577</v>
+      </c>
+      <c r="E216" t="s">
+        <v>577</v>
+      </c>
       <c r="F216" t="s">
         <v>264</v>
       </c>
@@ -6402,9 +6495,18 @@
       <c r="A217" t="s">
         <v>1</v>
       </c>
+      <c r="B217" t="s">
+        <v>577</v>
+      </c>
       <c r="C217" t="s">
         <v>214</v>
       </c>
+      <c r="D217" t="s">
+        <v>577</v>
+      </c>
+      <c r="E217" t="s">
+        <v>577</v>
+      </c>
       <c r="F217" t="s">
         <v>285</v>
       </c>
@@ -6413,9 +6515,18 @@
       <c r="A218" t="s">
         <v>1</v>
       </c>
+      <c r="B218" t="s">
+        <v>577</v>
+      </c>
       <c r="C218" t="s">
         <v>214</v>
       </c>
+      <c r="D218" t="s">
+        <v>577</v>
+      </c>
+      <c r="E218" t="s">
+        <v>577</v>
+      </c>
       <c r="F218" t="s">
         <v>223</v>
       </c>
@@ -6424,9 +6535,18 @@
       <c r="A219" t="s">
         <v>1</v>
       </c>
+      <c r="B219" t="s">
+        <v>577</v>
+      </c>
       <c r="C219" t="s">
         <v>214</v>
       </c>
+      <c r="D219" t="s">
+        <v>577</v>
+      </c>
+      <c r="E219" t="s">
+        <v>577</v>
+      </c>
       <c r="F219" t="s">
         <v>224</v>
       </c>
@@ -6435,9 +6555,18 @@
       <c r="A220" t="s">
         <v>1</v>
       </c>
+      <c r="B220" t="s">
+        <v>577</v>
+      </c>
       <c r="C220" t="s">
         <v>214</v>
       </c>
+      <c r="D220" t="s">
+        <v>577</v>
+      </c>
+      <c r="E220" t="s">
+        <v>577</v>
+      </c>
       <c r="F220" t="s">
         <v>225</v>
       </c>
@@ -6446,9 +6575,18 @@
       <c r="A221" t="s">
         <v>1</v>
       </c>
+      <c r="B221" t="s">
+        <v>577</v>
+      </c>
       <c r="C221" t="s">
         <v>214</v>
       </c>
+      <c r="D221" t="s">
+        <v>577</v>
+      </c>
+      <c r="E221" t="s">
+        <v>577</v>
+      </c>
       <c r="F221" t="s">
         <v>226</v>
       </c>
@@ -6457,9 +6595,18 @@
       <c r="A222" t="s">
         <v>1</v>
       </c>
+      <c r="B222" t="s">
+        <v>577</v>
+      </c>
       <c r="C222" t="s">
         <v>214</v>
       </c>
+      <c r="D222" t="s">
+        <v>577</v>
+      </c>
+      <c r="E222" t="s">
+        <v>577</v>
+      </c>
       <c r="F222" t="s">
         <v>227</v>
       </c>
@@ -6468,9 +6615,18 @@
       <c r="A223" t="s">
         <v>1</v>
       </c>
+      <c r="B223" t="s">
+        <v>577</v>
+      </c>
       <c r="C223" t="s">
         <v>214</v>
       </c>
+      <c r="D223" t="s">
+        <v>577</v>
+      </c>
+      <c r="E223" t="s">
+        <v>577</v>
+      </c>
       <c r="F223" t="s">
         <v>270</v>
       </c>
@@ -6479,9 +6635,18 @@
       <c r="A224" t="s">
         <v>1</v>
       </c>
+      <c r="B224" t="s">
+        <v>577</v>
+      </c>
       <c r="C224" t="s">
         <v>214</v>
       </c>
+      <c r="D224" t="s">
+        <v>577</v>
+      </c>
+      <c r="E224" t="s">
+        <v>577</v>
+      </c>
       <c r="F224" t="s">
         <v>228</v>
       </c>
@@ -6490,9 +6655,18 @@
       <c r="A225" t="s">
         <v>1</v>
       </c>
+      <c r="B225" t="s">
+        <v>577</v>
+      </c>
       <c r="C225" t="s">
         <v>214</v>
       </c>
+      <c r="D225" t="s">
+        <v>577</v>
+      </c>
+      <c r="E225" t="s">
+        <v>577</v>
+      </c>
       <c r="F225" t="s">
         <v>229</v>
       </c>
@@ -6501,9 +6675,18 @@
       <c r="A226" t="s">
         <v>1</v>
       </c>
+      <c r="B226" t="s">
+        <v>577</v>
+      </c>
       <c r="C226" t="s">
         <v>214</v>
       </c>
+      <c r="D226" t="s">
+        <v>577</v>
+      </c>
+      <c r="E226" t="s">
+        <v>577</v>
+      </c>
       <c r="F226" t="s">
         <v>230</v>
       </c>
@@ -6512,9 +6695,18 @@
       <c r="A227" t="s">
         <v>1</v>
       </c>
+      <c r="B227" t="s">
+        <v>577</v>
+      </c>
       <c r="C227" t="s">
         <v>214</v>
       </c>
+      <c r="D227" t="s">
+        <v>577</v>
+      </c>
+      <c r="E227" t="s">
+        <v>577</v>
+      </c>
       <c r="F227" t="s">
         <v>231</v>
       </c>
@@ -6523,9 +6715,18 @@
       <c r="A228" t="s">
         <v>1</v>
       </c>
+      <c r="B228" t="s">
+        <v>577</v>
+      </c>
       <c r="C228" t="s">
         <v>214</v>
       </c>
+      <c r="D228" t="s">
+        <v>577</v>
+      </c>
+      <c r="E228" t="s">
+        <v>577</v>
+      </c>
       <c r="F228" t="s">
         <v>260</v>
       </c>
@@ -6534,9 +6735,18 @@
       <c r="A229" t="s">
         <v>1</v>
       </c>
+      <c r="B229" t="s">
+        <v>577</v>
+      </c>
       <c r="C229" t="s">
         <v>214</v>
       </c>
+      <c r="D229" t="s">
+        <v>577</v>
+      </c>
+      <c r="E229" t="s">
+        <v>577</v>
+      </c>
       <c r="F229" t="s">
         <v>286</v>
       </c>
@@ -6545,9 +6755,18 @@
       <c r="A230" t="s">
         <v>1</v>
       </c>
+      <c r="B230" t="s">
+        <v>577</v>
+      </c>
       <c r="C230" t="s">
         <v>214</v>
       </c>
+      <c r="D230" t="s">
+        <v>577</v>
+      </c>
+      <c r="E230" t="s">
+        <v>577</v>
+      </c>
       <c r="F230" t="s">
         <v>232</v>
       </c>
@@ -6556,9 +6775,18 @@
       <c r="A231" t="s">
         <v>1</v>
       </c>
+      <c r="B231" t="s">
+        <v>577</v>
+      </c>
       <c r="C231" t="s">
         <v>214</v>
       </c>
+      <c r="D231" t="s">
+        <v>577</v>
+      </c>
+      <c r="E231" t="s">
+        <v>577</v>
+      </c>
       <c r="F231" t="s">
         <v>233</v>
       </c>
@@ -6567,9 +6795,18 @@
       <c r="A232" t="s">
         <v>1</v>
       </c>
+      <c r="B232" t="s">
+        <v>577</v>
+      </c>
       <c r="C232" t="s">
         <v>214</v>
       </c>
+      <c r="D232" t="s">
+        <v>577</v>
+      </c>
+      <c r="E232" t="s">
+        <v>577</v>
+      </c>
       <c r="F232" t="s">
         <v>234</v>
       </c>
@@ -6578,9 +6815,18 @@
       <c r="A233" t="s">
         <v>1</v>
       </c>
+      <c r="B233" t="s">
+        <v>577</v>
+      </c>
       <c r="C233" t="s">
         <v>214</v>
       </c>
+      <c r="D233" t="s">
+        <v>577</v>
+      </c>
+      <c r="E233" t="s">
+        <v>577</v>
+      </c>
       <c r="F233" t="s">
         <v>235</v>
       </c>
@@ -6589,9 +6835,18 @@
       <c r="A234" t="s">
         <v>1</v>
       </c>
+      <c r="B234" t="s">
+        <v>577</v>
+      </c>
       <c r="C234" t="s">
         <v>214</v>
       </c>
+      <c r="D234" t="s">
+        <v>577</v>
+      </c>
+      <c r="E234" t="s">
+        <v>577</v>
+      </c>
       <c r="F234" t="s">
         <v>236</v>
       </c>
@@ -6600,9 +6855,18 @@
       <c r="A235" t="s">
         <v>1</v>
       </c>
+      <c r="B235" t="s">
+        <v>577</v>
+      </c>
       <c r="C235" t="s">
         <v>214</v>
       </c>
+      <c r="D235" t="s">
+        <v>577</v>
+      </c>
+      <c r="E235" t="s">
+        <v>577</v>
+      </c>
       <c r="F235" t="s">
         <v>237</v>
       </c>
@@ -6611,9 +6875,18 @@
       <c r="A236" t="s">
         <v>1</v>
       </c>
+      <c r="B236" t="s">
+        <v>577</v>
+      </c>
       <c r="C236" t="s">
         <v>214</v>
       </c>
+      <c r="D236" t="s">
+        <v>577</v>
+      </c>
+      <c r="E236" t="s">
+        <v>577</v>
+      </c>
       <c r="F236" t="s">
         <v>238</v>
       </c>
@@ -6622,9 +6895,18 @@
       <c r="A237" t="s">
         <v>1</v>
       </c>
+      <c r="B237" t="s">
+        <v>577</v>
+      </c>
       <c r="C237" t="s">
         <v>214</v>
       </c>
+      <c r="D237" t="s">
+        <v>577</v>
+      </c>
+      <c r="E237" t="s">
+        <v>577</v>
+      </c>
       <c r="F237" t="s">
         <v>239</v>
       </c>
@@ -6633,9 +6915,18 @@
       <c r="A238" t="s">
         <v>1</v>
       </c>
+      <c r="B238" t="s">
+        <v>577</v>
+      </c>
       <c r="C238" t="s">
         <v>214</v>
       </c>
+      <c r="D238" t="s">
+        <v>577</v>
+      </c>
+      <c r="E238" t="s">
+        <v>577</v>
+      </c>
       <c r="F238" t="s">
         <v>240</v>
       </c>
@@ -6644,9 +6935,18 @@
       <c r="A239" t="s">
         <v>1</v>
       </c>
+      <c r="B239" t="s">
+        <v>577</v>
+      </c>
       <c r="C239" t="s">
         <v>214</v>
       </c>
+      <c r="D239" t="s">
+        <v>577</v>
+      </c>
+      <c r="E239" t="s">
+        <v>577</v>
+      </c>
       <c r="F239" t="s">
         <v>271</v>
       </c>
@@ -6655,9 +6955,18 @@
       <c r="A240" t="s">
         <v>1</v>
       </c>
+      <c r="B240" t="s">
+        <v>577</v>
+      </c>
       <c r="C240" t="s">
         <v>214</v>
       </c>
+      <c r="D240" t="s">
+        <v>577</v>
+      </c>
+      <c r="E240" t="s">
+        <v>577</v>
+      </c>
       <c r="F240" t="s">
         <v>8</v>
       </c>
@@ -6666,9 +6975,18 @@
       <c r="A241" t="s">
         <v>1</v>
       </c>
+      <c r="B241" t="s">
+        <v>577</v>
+      </c>
       <c r="C241" t="s">
         <v>214</v>
       </c>
+      <c r="D241" t="s">
+        <v>577</v>
+      </c>
+      <c r="E241" t="s">
+        <v>577</v>
+      </c>
       <c r="F241" t="s">
         <v>287</v>
       </c>
@@ -6677,9 +6995,18 @@
       <c r="A242" t="s">
         <v>1</v>
       </c>
+      <c r="B242" t="s">
+        <v>577</v>
+      </c>
       <c r="C242" t="s">
         <v>214</v>
       </c>
+      <c r="D242" t="s">
+        <v>577</v>
+      </c>
+      <c r="E242" t="s">
+        <v>577</v>
+      </c>
       <c r="F242" t="s">
         <v>248</v>
       </c>
@@ -6688,9 +7015,18 @@
       <c r="A243" t="s">
         <v>1</v>
       </c>
+      <c r="B243" t="s">
+        <v>577</v>
+      </c>
       <c r="C243" t="s">
         <v>214</v>
       </c>
+      <c r="D243" t="s">
+        <v>577</v>
+      </c>
+      <c r="E243" t="s">
+        <v>577</v>
+      </c>
       <c r="F243" t="s">
         <v>241</v>
       </c>
@@ -6699,9 +7035,18 @@
       <c r="A244" t="s">
         <v>1</v>
       </c>
+      <c r="B244" t="s">
+        <v>577</v>
+      </c>
       <c r="C244" t="s">
         <v>214</v>
       </c>
+      <c r="D244" t="s">
+        <v>577</v>
+      </c>
+      <c r="E244" t="s">
+        <v>577</v>
+      </c>
       <c r="F244" t="s">
         <v>242</v>
       </c>
@@ -6710,9 +7055,18 @@
       <c r="A245" t="s">
         <v>1</v>
       </c>
+      <c r="B245" t="s">
+        <v>577</v>
+      </c>
       <c r="C245" t="s">
         <v>214</v>
       </c>
+      <c r="D245" t="s">
+        <v>577</v>
+      </c>
+      <c r="E245" t="s">
+        <v>577</v>
+      </c>
       <c r="F245" t="s">
         <v>243</v>
       </c>
@@ -6721,9 +7075,18 @@
       <c r="A246" t="s">
         <v>1</v>
       </c>
+      <c r="B246" t="s">
+        <v>577</v>
+      </c>
       <c r="C246" t="s">
         <v>214</v>
       </c>
+      <c r="D246" t="s">
+        <v>577</v>
+      </c>
+      <c r="E246" t="s">
+        <v>577</v>
+      </c>
       <c r="F246" t="s">
         <v>266</v>
       </c>
@@ -6732,9 +7095,18 @@
       <c r="A247" t="s">
         <v>1</v>
       </c>
+      <c r="B247" t="s">
+        <v>577</v>
+      </c>
       <c r="C247" t="s">
         <v>214</v>
       </c>
+      <c r="D247" t="s">
+        <v>577</v>
+      </c>
+      <c r="E247" t="s">
+        <v>577</v>
+      </c>
       <c r="F247" t="s">
         <v>244</v>
       </c>
@@ -6743,9 +7115,18 @@
       <c r="A248" t="s">
         <v>1</v>
       </c>
+      <c r="B248" t="s">
+        <v>577</v>
+      </c>
       <c r="C248" t="s">
         <v>214</v>
       </c>
+      <c r="D248" t="s">
+        <v>577</v>
+      </c>
+      <c r="E248" t="s">
+        <v>577</v>
+      </c>
       <c r="F248" t="s">
         <v>245</v>
       </c>
@@ -6754,9 +7135,18 @@
       <c r="A249" t="s">
         <v>1</v>
       </c>
+      <c r="B249" t="s">
+        <v>577</v>
+      </c>
       <c r="C249" t="s">
         <v>214</v>
       </c>
+      <c r="D249" t="s">
+        <v>577</v>
+      </c>
+      <c r="E249" t="s">
+        <v>577</v>
+      </c>
       <c r="F249" t="s">
         <v>246</v>
       </c>
@@ -6765,9 +7155,18 @@
       <c r="A250" t="s">
         <v>1</v>
       </c>
+      <c r="B250" t="s">
+        <v>577</v>
+      </c>
       <c r="C250" t="s">
         <v>214</v>
       </c>
+      <c r="D250" t="s">
+        <v>577</v>
+      </c>
+      <c r="E250" t="s">
+        <v>577</v>
+      </c>
       <c r="F250" t="s">
         <v>247</v>
       </c>
@@ -6776,9 +7175,18 @@
       <c r="A251" t="s">
         <v>1</v>
       </c>
+      <c r="B251" t="s">
+        <v>577</v>
+      </c>
       <c r="C251" t="s">
         <v>214</v>
       </c>
+      <c r="D251" t="s">
+        <v>577</v>
+      </c>
+      <c r="E251" t="s">
+        <v>577</v>
+      </c>
       <c r="F251" t="s">
         <v>280</v>
       </c>
@@ -6787,9 +7195,18 @@
       <c r="A252" t="s">
         <v>1</v>
       </c>
+      <c r="B252" t="s">
+        <v>577</v>
+      </c>
       <c r="C252" t="s">
         <v>214</v>
       </c>
+      <c r="D252" t="s">
+        <v>577</v>
+      </c>
+      <c r="E252" t="s">
+        <v>577</v>
+      </c>
       <c r="F252" t="s">
         <v>288</v>
       </c>
@@ -6798,9 +7215,18 @@
       <c r="A253" t="s">
         <v>1</v>
       </c>
+      <c r="B253" t="s">
+        <v>577</v>
+      </c>
       <c r="C253" t="s">
         <v>214</v>
       </c>
+      <c r="D253" t="s">
+        <v>577</v>
+      </c>
+      <c r="E253" t="s">
+        <v>577</v>
+      </c>
       <c r="F253" t="s">
         <v>276</v>
       </c>
@@ -6809,9 +7235,18 @@
       <c r="A254" t="s">
         <v>1</v>
       </c>
+      <c r="B254" t="s">
+        <v>577</v>
+      </c>
       <c r="C254" t="s">
         <v>214</v>
       </c>
+      <c r="D254" t="s">
+        <v>577</v>
+      </c>
+      <c r="E254" t="s">
+        <v>577</v>
+      </c>
       <c r="F254" t="s">
         <v>268</v>
       </c>
@@ -6820,9 +7255,18 @@
       <c r="A255" t="s">
         <v>1</v>
       </c>
+      <c r="B255" t="s">
+        <v>577</v>
+      </c>
       <c r="C255" t="s">
         <v>214</v>
       </c>
+      <c r="D255" t="s">
+        <v>577</v>
+      </c>
+      <c r="E255" t="s">
+        <v>577</v>
+      </c>
       <c r="F255" t="s">
         <v>249</v>
       </c>
@@ -6831,9 +7275,18 @@
       <c r="A256" t="s">
         <v>1</v>
       </c>
+      <c r="B256" t="s">
+        <v>577</v>
+      </c>
       <c r="C256" t="s">
         <v>214</v>
       </c>
+      <c r="D256" t="s">
+        <v>577</v>
+      </c>
+      <c r="E256" t="s">
+        <v>577</v>
+      </c>
       <c r="F256" t="s">
         <v>250</v>
       </c>
@@ -6842,9 +7295,18 @@
       <c r="A257" t="s">
         <v>1</v>
       </c>
+      <c r="B257" t="s">
+        <v>577</v>
+      </c>
       <c r="C257" t="s">
         <v>214</v>
       </c>
+      <c r="D257" t="s">
+        <v>577</v>
+      </c>
+      <c r="E257" t="s">
+        <v>577</v>
+      </c>
       <c r="F257" t="s">
         <v>251</v>
       </c>
@@ -6853,9 +7315,18 @@
       <c r="A258" t="s">
         <v>1</v>
       </c>
+      <c r="B258" t="s">
+        <v>577</v>
+      </c>
       <c r="C258" t="s">
         <v>214</v>
       </c>
+      <c r="D258" t="s">
+        <v>577</v>
+      </c>
+      <c r="E258" t="s">
+        <v>577</v>
+      </c>
       <c r="F258" t="s">
         <v>274</v>
       </c>
@@ -6864,9 +7335,18 @@
       <c r="A259" t="s">
         <v>1</v>
       </c>
+      <c r="B259" t="s">
+        <v>577</v>
+      </c>
       <c r="C259" t="s">
         <v>214</v>
       </c>
+      <c r="D259" t="s">
+        <v>577</v>
+      </c>
+      <c r="E259" t="s">
+        <v>577</v>
+      </c>
       <c r="F259" t="s">
         <v>252</v>
       </c>
@@ -6875,9 +7355,18 @@
       <c r="A260" t="s">
         <v>1</v>
       </c>
+      <c r="B260" t="s">
+        <v>577</v>
+      </c>
       <c r="C260" t="s">
         <v>214</v>
       </c>
+      <c r="D260" t="s">
+        <v>577</v>
+      </c>
+      <c r="E260" t="s">
+        <v>577</v>
+      </c>
       <c r="F260" t="s">
         <v>253</v>
       </c>
@@ -6886,9 +7375,18 @@
       <c r="A261" t="s">
         <v>1</v>
       </c>
+      <c r="B261" t="s">
+        <v>577</v>
+      </c>
       <c r="C261" t="s">
         <v>214</v>
       </c>
+      <c r="D261" t="s">
+        <v>577</v>
+      </c>
+      <c r="E261" t="s">
+        <v>577</v>
+      </c>
       <c r="F261" t="s">
         <v>254</v>
       </c>
@@ -6897,9 +7395,18 @@
       <c r="A262" t="s">
         <v>1</v>
       </c>
+      <c r="B262" t="s">
+        <v>577</v>
+      </c>
       <c r="C262" t="s">
         <v>214</v>
       </c>
+      <c r="D262" t="s">
+        <v>577</v>
+      </c>
+      <c r="E262" t="s">
+        <v>577</v>
+      </c>
       <c r="F262" t="s">
         <v>255</v>
       </c>
@@ -6908,9 +7415,18 @@
       <c r="A263" t="s">
         <v>1</v>
       </c>
+      <c r="B263" t="s">
+        <v>577</v>
+      </c>
       <c r="C263" t="s">
         <v>214</v>
       </c>
+      <c r="D263" t="s">
+        <v>577</v>
+      </c>
+      <c r="E263" t="s">
+        <v>577</v>
+      </c>
       <c r="F263" t="s">
         <v>279</v>
       </c>
@@ -6919,9 +7435,18 @@
       <c r="A264" t="s">
         <v>1</v>
       </c>
+      <c r="B264" t="s">
+        <v>577</v>
+      </c>
       <c r="C264" t="s">
         <v>214</v>
       </c>
+      <c r="D264" t="s">
+        <v>577</v>
+      </c>
+      <c r="E264" t="s">
+        <v>577</v>
+      </c>
       <c r="F264" t="s">
         <v>289</v>
       </c>
@@ -6930,9 +7455,18 @@
       <c r="A265" t="s">
         <v>1</v>
       </c>
+      <c r="B265" t="s">
+        <v>577</v>
+      </c>
       <c r="C265" t="s">
         <v>214</v>
       </c>
+      <c r="D265" t="s">
+        <v>577</v>
+      </c>
+      <c r="E265" t="s">
+        <v>577</v>
+      </c>
       <c r="F265" t="s">
         <v>277</v>
       </c>
@@ -6941,9 +7475,18 @@
       <c r="A266" t="s">
         <v>1</v>
       </c>
+      <c r="B266" t="s">
+        <v>577</v>
+      </c>
       <c r="C266" t="s">
         <v>214</v>
       </c>
+      <c r="D266" t="s">
+        <v>577</v>
+      </c>
+      <c r="E266" t="s">
+        <v>577</v>
+      </c>
       <c r="F266" t="s">
         <v>282</v>
       </c>
@@ -6952,9 +7495,18 @@
       <c r="A267" t="s">
         <v>1</v>
       </c>
+      <c r="B267" t="s">
+        <v>577</v>
+      </c>
       <c r="C267" t="s">
         <v>214</v>
       </c>
+      <c r="D267" t="s">
+        <v>577</v>
+      </c>
+      <c r="E267" t="s">
+        <v>577</v>
+      </c>
       <c r="F267" t="s">
         <v>256</v>
       </c>
@@ -6963,9 +7515,18 @@
       <c r="A268" t="s">
         <v>1</v>
       </c>
+      <c r="B268" t="s">
+        <v>577</v>
+      </c>
       <c r="C268" t="s">
         <v>214</v>
       </c>
+      <c r="D268" t="s">
+        <v>577</v>
+      </c>
+      <c r="E268" t="s">
+        <v>577</v>
+      </c>
       <c r="F268" t="s">
         <v>281</v>
       </c>
@@ -6974,9 +7535,18 @@
       <c r="A269" t="s">
         <v>1</v>
       </c>
+      <c r="B269" t="s">
+        <v>577</v>
+      </c>
       <c r="C269" t="s">
         <v>214</v>
       </c>
+      <c r="D269" t="s">
+        <v>577</v>
+      </c>
+      <c r="E269" t="s">
+        <v>577</v>
+      </c>
       <c r="F269" t="s">
         <v>257</v>
       </c>
@@ -6985,9 +7555,18 @@
       <c r="A270" t="s">
         <v>1</v>
       </c>
+      <c r="B270" t="s">
+        <v>577</v>
+      </c>
       <c r="C270" t="s">
         <v>214</v>
       </c>
+      <c r="D270" t="s">
+        <v>577</v>
+      </c>
+      <c r="E270" t="s">
+        <v>577</v>
+      </c>
       <c r="F270" t="s">
         <v>269</v>
       </c>
@@ -6996,9 +7575,18 @@
       <c r="A271" t="s">
         <v>1</v>
       </c>
+      <c r="B271" t="s">
+        <v>577</v>
+      </c>
       <c r="C271" t="s">
         <v>214</v>
       </c>
+      <c r="D271" t="s">
+        <v>577</v>
+      </c>
+      <c r="E271" t="s">
+        <v>577</v>
+      </c>
       <c r="F271" t="s">
         <v>258</v>
       </c>
@@ -7007,9 +7595,18 @@
       <c r="A272" t="s">
         <v>1</v>
       </c>
+      <c r="B272" t="s">
+        <v>577</v>
+      </c>
       <c r="C272" t="s">
         <v>214</v>
       </c>
+      <c r="D272" t="s">
+        <v>577</v>
+      </c>
+      <c r="E272" t="s">
+        <v>577</v>
+      </c>
       <c r="F272" t="s">
         <v>283</v>
       </c>
@@ -7018,9 +7615,18 @@
       <c r="A273" t="s">
         <v>1</v>
       </c>
+      <c r="B273" t="s">
+        <v>577</v>
+      </c>
       <c r="C273" t="s">
         <v>214</v>
       </c>
+      <c r="D273" t="s">
+        <v>577</v>
+      </c>
+      <c r="E273" t="s">
+        <v>577</v>
+      </c>
       <c r="F273" t="s">
         <v>259</v>
       </c>
@@ -7029,9 +7635,18 @@
       <c r="A274" t="s">
         <v>1</v>
       </c>
+      <c r="B274" t="s">
+        <v>577</v>
+      </c>
       <c r="C274" t="s">
         <v>214</v>
       </c>
+      <c r="D274" t="s">
+        <v>577</v>
+      </c>
+      <c r="E274" t="s">
+        <v>577</v>
+      </c>
       <c r="F274" t="s">
         <v>272</v>
       </c>
@@ -7040,9 +7655,18 @@
       <c r="A275" t="s">
         <v>1</v>
       </c>
+      <c r="B275" t="s">
+        <v>577</v>
+      </c>
       <c r="C275" t="s">
         <v>214</v>
       </c>
+      <c r="D275" t="s">
+        <v>577</v>
+      </c>
+      <c r="E275" t="s">
+        <v>577</v>
+      </c>
       <c r="F275" t="s">
         <v>290</v>
       </c>
@@ -7051,9 +7675,18 @@
       <c r="A276" t="s">
         <v>1</v>
       </c>
+      <c r="B276" t="s">
+        <v>577</v>
+      </c>
       <c r="C276" t="s">
         <v>214</v>
       </c>
+      <c r="D276" t="s">
+        <v>577</v>
+      </c>
+      <c r="E276" t="s">
+        <v>577</v>
+      </c>
       <c r="F276" t="s">
         <v>267</v>
       </c>
@@ -7062,9 +7695,18 @@
       <c r="A277" t="s">
         <v>1</v>
       </c>
+      <c r="B277" t="s">
+        <v>577</v>
+      </c>
       <c r="C277" t="s">
         <v>214</v>
       </c>
+      <c r="D277" t="s">
+        <v>577</v>
+      </c>
+      <c r="E277" t="s">
+        <v>577</v>
+      </c>
       <c r="F277" t="s">
         <v>262</v>
       </c>
@@ -7073,9 +7715,18 @@
       <c r="A278" t="s">
         <v>1</v>
       </c>
+      <c r="B278" t="s">
+        <v>577</v>
+      </c>
       <c r="C278" t="s">
         <v>214</v>
       </c>
+      <c r="D278" t="s">
+        <v>577</v>
+      </c>
+      <c r="E278" t="s">
+        <v>577</v>
+      </c>
       <c r="F278" t="s">
         <v>275</v>
       </c>
@@ -7084,9 +7735,18 @@
       <c r="A279" t="s">
         <v>1</v>
       </c>
+      <c r="B279" t="s">
+        <v>577</v>
+      </c>
       <c r="C279" t="s">
         <v>214</v>
       </c>
+      <c r="D279" t="s">
+        <v>577</v>
+      </c>
+      <c r="E279" t="s">
+        <v>577</v>
+      </c>
       <c r="F279" t="s">
         <v>273</v>
       </c>
@@ -7095,9 +7755,18 @@
       <c r="A280" t="s">
         <v>1</v>
       </c>
+      <c r="B280" t="s">
+        <v>577</v>
+      </c>
       <c r="C280" t="s">
         <v>214</v>
       </c>
+      <c r="D280" t="s">
+        <v>577</v>
+      </c>
+      <c r="E280" t="s">
+        <v>577</v>
+      </c>
       <c r="F280" t="s">
         <v>261</v>
       </c>
@@ -7106,9 +7775,18 @@
       <c r="A281" t="s">
         <v>1</v>
       </c>
+      <c r="B281" t="s">
+        <v>577</v>
+      </c>
       <c r="C281" t="s">
         <v>214</v>
       </c>
+      <c r="D281" t="s">
+        <v>577</v>
+      </c>
+      <c r="E281" t="s">
+        <v>577</v>
+      </c>
       <c r="F281" t="s">
         <v>284</v>
       </c>
@@ -7117,9 +7795,18 @@
       <c r="A282" t="s">
         <v>1</v>
       </c>
+      <c r="B282" t="s">
+        <v>577</v>
+      </c>
       <c r="C282" t="s">
         <v>214</v>
       </c>
+      <c r="D282" t="s">
+        <v>577</v>
+      </c>
+      <c r="E282" t="s">
+        <v>577</v>
+      </c>
       <c r="F282" t="s">
         <v>263</v>
       </c>
@@ -7128,9 +7815,18 @@
       <c r="A283" t="s">
         <v>1</v>
       </c>
+      <c r="B283" t="s">
+        <v>577</v>
+      </c>
       <c r="C283" t="s">
         <v>214</v>
       </c>
+      <c r="D283" t="s">
+        <v>577</v>
+      </c>
+      <c r="E283" t="s">
+        <v>577</v>
+      </c>
       <c r="F283" t="s">
         <v>278</v>
       </c>
@@ -7139,8 +7835,17 @@
       <c r="A284" t="s">
         <v>1</v>
       </c>
+      <c r="B284" t="s">
+        <v>577</v>
+      </c>
       <c r="C284" t="s">
         <v>215</v>
+      </c>
+      <c r="D284" t="s">
+        <v>577</v>
+      </c>
+      <c r="E284" t="s">
+        <v>577</v>
       </c>
       <c r="F284" s="3" t="s">
         <v>293</v>
@@ -7150,8 +7855,17 @@
       <c r="A285" t="s">
         <v>1</v>
       </c>
+      <c r="B285" t="s">
+        <v>577</v>
+      </c>
       <c r="C285" t="s">
         <v>215</v>
+      </c>
+      <c r="D285" t="s">
+        <v>577</v>
+      </c>
+      <c r="E285" t="s">
+        <v>577</v>
       </c>
       <c r="F285" s="3" t="s">
         <v>294</v>
@@ -7161,8 +7875,17 @@
       <c r="A286" t="s">
         <v>1</v>
       </c>
+      <c r="B286" t="s">
+        <v>577</v>
+      </c>
       <c r="C286" t="s">
         <v>215</v>
+      </c>
+      <c r="D286" t="s">
+        <v>577</v>
+      </c>
+      <c r="E286" t="s">
+        <v>577</v>
       </c>
       <c r="F286" s="3" t="s">
         <v>295</v>
@@ -7172,8 +7895,17 @@
       <c r="A287" t="s">
         <v>1</v>
       </c>
+      <c r="B287" t="s">
+        <v>577</v>
+      </c>
       <c r="C287" t="s">
         <v>215</v>
+      </c>
+      <c r="D287" t="s">
+        <v>577</v>
+      </c>
+      <c r="E287" t="s">
+        <v>577</v>
       </c>
       <c r="F287" s="3" t="s">
         <v>296</v>
@@ -7183,8 +7915,17 @@
       <c r="A288" t="s">
         <v>1</v>
       </c>
+      <c r="B288" t="s">
+        <v>577</v>
+      </c>
       <c r="C288" t="s">
         <v>215</v>
+      </c>
+      <c r="D288" t="s">
+        <v>577</v>
+      </c>
+      <c r="E288" t="s">
+        <v>577</v>
       </c>
       <c r="F288" s="3" t="s">
         <v>297</v>
@@ -7194,8 +7935,17 @@
       <c r="A289" t="s">
         <v>1</v>
       </c>
+      <c r="B289" t="s">
+        <v>577</v>
+      </c>
       <c r="C289" t="s">
         <v>215</v>
+      </c>
+      <c r="D289" t="s">
+        <v>577</v>
+      </c>
+      <c r="E289" t="s">
+        <v>577</v>
       </c>
       <c r="F289" s="3" t="s">
         <v>298</v>
@@ -7205,8 +7955,17 @@
       <c r="A290" t="s">
         <v>1</v>
       </c>
+      <c r="B290" t="s">
+        <v>577</v>
+      </c>
       <c r="C290" t="s">
         <v>215</v>
+      </c>
+      <c r="D290" t="s">
+        <v>577</v>
+      </c>
+      <c r="E290" t="s">
+        <v>577</v>
       </c>
       <c r="F290" s="3" t="s">
         <v>299</v>
@@ -7216,8 +7975,17 @@
       <c r="A291" t="s">
         <v>1</v>
       </c>
+      <c r="B291" t="s">
+        <v>577</v>
+      </c>
       <c r="C291" t="s">
         <v>215</v>
+      </c>
+      <c r="D291" t="s">
+        <v>577</v>
+      </c>
+      <c r="E291" t="s">
+        <v>577</v>
       </c>
       <c r="F291" s="3" t="s">
         <v>300</v>
@@ -7227,8 +7995,17 @@
       <c r="A292" t="s">
         <v>1</v>
       </c>
+      <c r="B292" t="s">
+        <v>577</v>
+      </c>
       <c r="C292" t="s">
         <v>215</v>
+      </c>
+      <c r="D292" t="s">
+        <v>577</v>
+      </c>
+      <c r="E292" t="s">
+        <v>577</v>
       </c>
       <c r="F292" s="3" t="s">
         <v>301</v>
@@ -7238,8 +8015,17 @@
       <c r="A293" t="s">
         <v>1</v>
       </c>
+      <c r="B293" t="s">
+        <v>577</v>
+      </c>
       <c r="C293" t="s">
         <v>215</v>
+      </c>
+      <c r="D293" t="s">
+        <v>577</v>
+      </c>
+      <c r="E293" t="s">
+        <v>577</v>
       </c>
       <c r="F293" s="3" t="s">
         <v>302</v>
@@ -7249,8 +8035,17 @@
       <c r="A294" t="s">
         <v>1</v>
       </c>
+      <c r="B294" t="s">
+        <v>577</v>
+      </c>
       <c r="C294" t="s">
         <v>215</v>
+      </c>
+      <c r="D294" t="s">
+        <v>577</v>
+      </c>
+      <c r="E294" t="s">
+        <v>577</v>
       </c>
       <c r="F294" s="3" t="s">
         <v>303</v>
@@ -7260,8 +8055,17 @@
       <c r="A295" t="s">
         <v>1</v>
       </c>
+      <c r="B295" t="s">
+        <v>577</v>
+      </c>
       <c r="C295" t="s">
         <v>215</v>
+      </c>
+      <c r="D295" t="s">
+        <v>577</v>
+      </c>
+      <c r="E295" t="s">
+        <v>577</v>
       </c>
       <c r="F295" s="3" t="s">
         <v>304</v>
@@ -7271,8 +8075,17 @@
       <c r="A296" t="s">
         <v>1</v>
       </c>
+      <c r="B296" t="s">
+        <v>577</v>
+      </c>
       <c r="C296" t="s">
         <v>215</v>
+      </c>
+      <c r="D296" t="s">
+        <v>577</v>
+      </c>
+      <c r="E296" t="s">
+        <v>577</v>
       </c>
       <c r="F296" s="3" t="s">
         <v>305</v>
@@ -7282,8 +8095,17 @@
       <c r="A297" t="s">
         <v>1</v>
       </c>
+      <c r="B297" t="s">
+        <v>577</v>
+      </c>
       <c r="C297" t="s">
         <v>215</v>
+      </c>
+      <c r="D297" t="s">
+        <v>577</v>
+      </c>
+      <c r="E297" t="s">
+        <v>577</v>
       </c>
       <c r="F297" s="3" t="s">
         <v>306</v>
@@ -7293,8 +8115,17 @@
       <c r="A298" t="s">
         <v>1</v>
       </c>
+      <c r="B298" t="s">
+        <v>577</v>
+      </c>
       <c r="C298" t="s">
         <v>215</v>
+      </c>
+      <c r="D298" t="s">
+        <v>577</v>
+      </c>
+      <c r="E298" t="s">
+        <v>577</v>
       </c>
       <c r="F298" s="3" t="s">
         <v>307</v>
@@ -7304,8 +8135,17 @@
       <c r="A299" t="s">
         <v>1</v>
       </c>
+      <c r="B299" t="s">
+        <v>577</v>
+      </c>
       <c r="C299" t="s">
         <v>215</v>
+      </c>
+      <c r="D299" t="s">
+        <v>577</v>
+      </c>
+      <c r="E299" t="s">
+        <v>577</v>
       </c>
       <c r="F299" s="3" t="s">
         <v>308</v>
@@ -7315,8 +8155,17 @@
       <c r="A300" t="s">
         <v>1</v>
       </c>
+      <c r="B300" t="s">
+        <v>577</v>
+      </c>
       <c r="C300" t="s">
         <v>215</v>
+      </c>
+      <c r="D300" t="s">
+        <v>577</v>
+      </c>
+      <c r="E300" t="s">
+        <v>577</v>
       </c>
       <c r="F300" s="3" t="s">
         <v>309</v>
@@ -7326,8 +8175,17 @@
       <c r="A301" t="s">
         <v>1</v>
       </c>
+      <c r="B301" t="s">
+        <v>577</v>
+      </c>
       <c r="C301" t="s">
         <v>215</v>
+      </c>
+      <c r="D301" t="s">
+        <v>577</v>
+      </c>
+      <c r="E301" t="s">
+        <v>577</v>
       </c>
       <c r="F301" s="3" t="s">
         <v>310</v>
@@ -7337,8 +8195,17 @@
       <c r="A302" t="s">
         <v>1</v>
       </c>
+      <c r="B302" t="s">
+        <v>577</v>
+      </c>
       <c r="C302" t="s">
         <v>215</v>
+      </c>
+      <c r="D302" t="s">
+        <v>577</v>
+      </c>
+      <c r="E302" t="s">
+        <v>577</v>
       </c>
       <c r="F302" s="3" t="s">
         <v>311</v>
@@ -7348,8 +8215,17 @@
       <c r="A303" t="s">
         <v>1</v>
       </c>
+      <c r="B303" t="s">
+        <v>577</v>
+      </c>
       <c r="C303" t="s">
         <v>215</v>
+      </c>
+      <c r="D303" t="s">
+        <v>577</v>
+      </c>
+      <c r="E303" t="s">
+        <v>577</v>
       </c>
       <c r="F303" s="3" t="s">
         <v>312</v>
@@ -7359,8 +8235,17 @@
       <c r="A304" t="s">
         <v>1</v>
       </c>
+      <c r="B304" t="s">
+        <v>577</v>
+      </c>
       <c r="C304" t="s">
         <v>215</v>
+      </c>
+      <c r="D304" t="s">
+        <v>577</v>
+      </c>
+      <c r="E304" t="s">
+        <v>577</v>
       </c>
       <c r="F304" s="3" t="s">
         <v>313</v>
@@ -7370,8 +8255,17 @@
       <c r="A305" t="s">
         <v>1</v>
       </c>
+      <c r="B305" t="s">
+        <v>577</v>
+      </c>
       <c r="C305" t="s">
         <v>215</v>
+      </c>
+      <c r="D305" t="s">
+        <v>577</v>
+      </c>
+      <c r="E305" t="s">
+        <v>577</v>
       </c>
       <c r="F305" s="3" t="s">
         <v>314</v>
@@ -7381,8 +8275,17 @@
       <c r="A306" t="s">
         <v>1</v>
       </c>
+      <c r="B306" t="s">
+        <v>577</v>
+      </c>
       <c r="C306" t="s">
         <v>215</v>
+      </c>
+      <c r="D306" t="s">
+        <v>577</v>
+      </c>
+      <c r="E306" t="s">
+        <v>577</v>
       </c>
       <c r="F306" s="3" t="s">
         <v>315</v>
@@ -7392,8 +8295,17 @@
       <c r="A307" t="s">
         <v>1</v>
       </c>
+      <c r="B307" t="s">
+        <v>577</v>
+      </c>
       <c r="C307" t="s">
         <v>215</v>
+      </c>
+      <c r="D307" t="s">
+        <v>577</v>
+      </c>
+      <c r="E307" t="s">
+        <v>577</v>
       </c>
       <c r="F307" s="3" t="s">
         <v>316</v>
@@ -7403,8 +8315,17 @@
       <c r="A308" t="s">
         <v>1</v>
       </c>
+      <c r="B308" t="s">
+        <v>577</v>
+      </c>
       <c r="C308" t="s">
         <v>215</v>
+      </c>
+      <c r="D308" t="s">
+        <v>577</v>
+      </c>
+      <c r="E308" t="s">
+        <v>577</v>
       </c>
       <c r="F308" s="3" t="s">
         <v>572</v>
@@ -7414,8 +8335,17 @@
       <c r="A309" t="s">
         <v>1</v>
       </c>
+      <c r="B309" t="s">
+        <v>577</v>
+      </c>
       <c r="C309" t="s">
         <v>215</v>
+      </c>
+      <c r="D309" t="s">
+        <v>577</v>
+      </c>
+      <c r="E309" t="s">
+        <v>577</v>
       </c>
       <c r="F309" s="3" t="s">
         <v>573</v>
@@ -7425,8 +8355,17 @@
       <c r="A310" t="s">
         <v>1</v>
       </c>
+      <c r="B310" t="s">
+        <v>577</v>
+      </c>
       <c r="C310" t="s">
         <v>215</v>
+      </c>
+      <c r="D310" t="s">
+        <v>577</v>
+      </c>
+      <c r="E310" t="s">
+        <v>577</v>
       </c>
       <c r="F310" s="3" t="s">
         <v>317</v>
@@ -7436,8 +8375,17 @@
       <c r="A311" t="s">
         <v>1</v>
       </c>
+      <c r="B311" t="s">
+        <v>577</v>
+      </c>
       <c r="C311" t="s">
         <v>215</v>
+      </c>
+      <c r="D311" t="s">
+        <v>577</v>
+      </c>
+      <c r="E311" t="s">
+        <v>577</v>
       </c>
       <c r="F311" s="3" t="s">
         <v>318</v>
@@ -7447,8 +8395,17 @@
       <c r="A312" t="s">
         <v>1</v>
       </c>
+      <c r="B312" t="s">
+        <v>577</v>
+      </c>
       <c r="C312" t="s">
         <v>215</v>
+      </c>
+      <c r="D312" t="s">
+        <v>577</v>
+      </c>
+      <c r="E312" t="s">
+        <v>577</v>
       </c>
       <c r="F312" s="3" t="s">
         <v>319</v>
@@ -7458,8 +8415,17 @@
       <c r="A313" t="s">
         <v>1</v>
       </c>
+      <c r="B313" t="s">
+        <v>577</v>
+      </c>
       <c r="C313" t="s">
         <v>215</v>
+      </c>
+      <c r="D313" t="s">
+        <v>577</v>
+      </c>
+      <c r="E313" t="s">
+        <v>577</v>
       </c>
       <c r="F313" s="3" t="s">
         <v>320</v>
@@ -7469,8 +8435,17 @@
       <c r="A314" t="s">
         <v>1</v>
       </c>
+      <c r="B314" t="s">
+        <v>577</v>
+      </c>
       <c r="C314" t="s">
         <v>215</v>
+      </c>
+      <c r="D314" t="s">
+        <v>577</v>
+      </c>
+      <c r="E314" t="s">
+        <v>577</v>
       </c>
       <c r="F314" s="3" t="s">
         <v>321</v>
@@ -7480,8 +8455,17 @@
       <c r="A315" t="s">
         <v>1</v>
       </c>
+      <c r="B315" t="s">
+        <v>577</v>
+      </c>
       <c r="C315" t="s">
         <v>215</v>
+      </c>
+      <c r="D315" t="s">
+        <v>577</v>
+      </c>
+      <c r="E315" t="s">
+        <v>577</v>
       </c>
       <c r="F315" s="3" t="s">
         <v>322</v>
@@ -7491,8 +8475,17 @@
       <c r="A316" t="s">
         <v>1</v>
       </c>
+      <c r="B316" t="s">
+        <v>577</v>
+      </c>
       <c r="C316" t="s">
         <v>215</v>
+      </c>
+      <c r="D316" t="s">
+        <v>577</v>
+      </c>
+      <c r="E316" t="s">
+        <v>577</v>
       </c>
       <c r="F316" s="3" t="s">
         <v>323</v>
@@ -7502,8 +8495,17 @@
       <c r="A317" t="s">
         <v>1</v>
       </c>
+      <c r="B317" t="s">
+        <v>577</v>
+      </c>
       <c r="C317" t="s">
         <v>215</v>
+      </c>
+      <c r="D317" t="s">
+        <v>577</v>
+      </c>
+      <c r="E317" t="s">
+        <v>577</v>
       </c>
       <c r="F317" s="3" t="s">
         <v>324</v>
@@ -7513,8 +8515,17 @@
       <c r="A318" t="s">
         <v>1</v>
       </c>
+      <c r="B318" t="s">
+        <v>577</v>
+      </c>
       <c r="C318" t="s">
         <v>215</v>
+      </c>
+      <c r="D318" t="s">
+        <v>577</v>
+      </c>
+      <c r="E318" t="s">
+        <v>577</v>
       </c>
       <c r="F318" s="3" t="s">
         <v>574</v>
@@ -7524,8 +8535,17 @@
       <c r="A319" t="s">
         <v>1</v>
       </c>
+      <c r="B319" t="s">
+        <v>577</v>
+      </c>
       <c r="C319" t="s">
         <v>215</v>
+      </c>
+      <c r="D319" t="s">
+        <v>577</v>
+      </c>
+      <c r="E319" t="s">
+        <v>577</v>
       </c>
       <c r="F319" s="3" t="s">
         <v>325</v>
@@ -7535,8 +8555,17 @@
       <c r="A320" t="s">
         <v>1</v>
       </c>
+      <c r="B320" t="s">
+        <v>577</v>
+      </c>
       <c r="C320" t="s">
         <v>215</v>
+      </c>
+      <c r="D320" t="s">
+        <v>577</v>
+      </c>
+      <c r="E320" t="s">
+        <v>577</v>
       </c>
       <c r="F320" s="3" t="s">
         <v>326</v>
@@ -7546,8 +8575,17 @@
       <c r="A321" t="s">
         <v>1</v>
       </c>
+      <c r="B321" t="s">
+        <v>577</v>
+      </c>
       <c r="C321" t="s">
         <v>215</v>
+      </c>
+      <c r="D321" t="s">
+        <v>577</v>
+      </c>
+      <c r="E321" t="s">
+        <v>577</v>
       </c>
       <c r="F321" s="3" t="s">
         <v>327</v>
@@ -7557,8 +8595,17 @@
       <c r="A322" t="s">
         <v>1</v>
       </c>
+      <c r="B322" t="s">
+        <v>577</v>
+      </c>
       <c r="C322" t="s">
         <v>215</v>
+      </c>
+      <c r="D322" t="s">
+        <v>577</v>
+      </c>
+      <c r="E322" t="s">
+        <v>577</v>
       </c>
       <c r="F322" s="3" t="s">
         <v>328</v>
@@ -7568,8 +8615,17 @@
       <c r="A323" t="s">
         <v>1</v>
       </c>
+      <c r="B323" t="s">
+        <v>577</v>
+      </c>
       <c r="C323" t="s">
         <v>215</v>
+      </c>
+      <c r="D323" t="s">
+        <v>577</v>
+      </c>
+      <c r="E323" t="s">
+        <v>577</v>
       </c>
       <c r="F323" s="3" t="s">
         <v>329</v>
@@ -7579,8 +8635,17 @@
       <c r="A324" t="s">
         <v>1</v>
       </c>
+      <c r="B324" t="s">
+        <v>577</v>
+      </c>
       <c r="C324" t="s">
         <v>215</v>
+      </c>
+      <c r="D324" t="s">
+        <v>577</v>
+      </c>
+      <c r="E324" t="s">
+        <v>577</v>
       </c>
       <c r="F324" s="3" t="s">
         <v>330</v>
@@ -7590,8 +8655,17 @@
       <c r="A325" t="s">
         <v>1</v>
       </c>
+      <c r="B325" t="s">
+        <v>577</v>
+      </c>
       <c r="C325" t="s">
         <v>215</v>
+      </c>
+      <c r="D325" t="s">
+        <v>577</v>
+      </c>
+      <c r="E325" t="s">
+        <v>577</v>
       </c>
       <c r="F325" s="3" t="s">
         <v>331</v>
@@ -7601,8 +8675,17 @@
       <c r="A326" t="s">
         <v>1</v>
       </c>
+      <c r="B326" t="s">
+        <v>577</v>
+      </c>
       <c r="C326" t="s">
         <v>215</v>
+      </c>
+      <c r="D326" t="s">
+        <v>577</v>
+      </c>
+      <c r="E326" t="s">
+        <v>577</v>
       </c>
       <c r="F326" s="3" t="s">
         <v>332</v>
@@ -7612,8 +8695,17 @@
       <c r="A327" t="s">
         <v>1</v>
       </c>
+      <c r="B327" t="s">
+        <v>577</v>
+      </c>
       <c r="C327" t="s">
         <v>215</v>
+      </c>
+      <c r="D327" t="s">
+        <v>577</v>
+      </c>
+      <c r="E327" t="s">
+        <v>577</v>
       </c>
       <c r="F327" s="3" t="s">
         <v>333</v>
@@ -7623,8 +8715,17 @@
       <c r="A328" t="s">
         <v>1</v>
       </c>
+      <c r="B328" t="s">
+        <v>577</v>
+      </c>
       <c r="C328" t="s">
         <v>215</v>
+      </c>
+      <c r="D328" t="s">
+        <v>577</v>
+      </c>
+      <c r="E328" t="s">
+        <v>577</v>
       </c>
       <c r="F328" s="3" t="s">
         <v>334</v>
@@ -7634,8 +8735,17 @@
       <c r="A329" t="s">
         <v>1</v>
       </c>
+      <c r="B329" t="s">
+        <v>577</v>
+      </c>
       <c r="C329" t="s">
         <v>215</v>
+      </c>
+      <c r="D329" t="s">
+        <v>577</v>
+      </c>
+      <c r="E329" t="s">
+        <v>577</v>
       </c>
       <c r="F329" s="3" t="s">
         <v>335</v>
@@ -7645,8 +8755,17 @@
       <c r="A330" t="s">
         <v>1</v>
       </c>
+      <c r="B330" t="s">
+        <v>577</v>
+      </c>
       <c r="C330" t="s">
         <v>215</v>
+      </c>
+      <c r="D330" t="s">
+        <v>577</v>
+      </c>
+      <c r="E330" t="s">
+        <v>577</v>
       </c>
       <c r="F330" s="3" t="s">
         <v>336</v>
@@ -7656,8 +8775,17 @@
       <c r="A331" t="s">
         <v>1</v>
       </c>
+      <c r="B331" t="s">
+        <v>577</v>
+      </c>
       <c r="C331" t="s">
         <v>215</v>
+      </c>
+      <c r="D331" t="s">
+        <v>577</v>
+      </c>
+      <c r="E331" t="s">
+        <v>577</v>
       </c>
       <c r="F331" s="3" t="s">
         <v>337</v>
@@ -7667,8 +8795,17 @@
       <c r="A332" t="s">
         <v>1</v>
       </c>
+      <c r="B332" t="s">
+        <v>577</v>
+      </c>
       <c r="C332" t="s">
         <v>215</v>
+      </c>
+      <c r="D332" t="s">
+        <v>577</v>
+      </c>
+      <c r="E332" t="s">
+        <v>577</v>
       </c>
       <c r="F332" s="3" t="s">
         <v>338</v>
@@ -7678,8 +8815,17 @@
       <c r="A333" t="s">
         <v>1</v>
       </c>
+      <c r="B333" t="s">
+        <v>577</v>
+      </c>
       <c r="C333" t="s">
         <v>215</v>
+      </c>
+      <c r="D333" t="s">
+        <v>577</v>
+      </c>
+      <c r="E333" t="s">
+        <v>577</v>
       </c>
       <c r="F333" s="3" t="s">
         <v>339</v>
@@ -7689,8 +8835,17 @@
       <c r="A334" t="s">
         <v>1</v>
       </c>
+      <c r="B334" t="s">
+        <v>577</v>
+      </c>
       <c r="C334" t="s">
         <v>215</v>
+      </c>
+      <c r="D334" t="s">
+        <v>577</v>
+      </c>
+      <c r="E334" t="s">
+        <v>577</v>
       </c>
       <c r="F334" s="3" t="s">
         <v>340</v>
@@ -7700,8 +8855,17 @@
       <c r="A335" t="s">
         <v>1</v>
       </c>
+      <c r="B335" t="s">
+        <v>577</v>
+      </c>
       <c r="C335" t="s">
         <v>215</v>
+      </c>
+      <c r="D335" t="s">
+        <v>577</v>
+      </c>
+      <c r="E335" t="s">
+        <v>577</v>
       </c>
       <c r="F335" s="3" t="s">
         <v>341</v>
@@ -7711,8 +8875,17 @@
       <c r="A336" t="s">
         <v>1</v>
       </c>
+      <c r="B336" t="s">
+        <v>577</v>
+      </c>
       <c r="C336" t="s">
         <v>215</v>
+      </c>
+      <c r="D336" t="s">
+        <v>577</v>
+      </c>
+      <c r="E336" t="s">
+        <v>577</v>
       </c>
       <c r="F336" s="3" t="s">
         <v>342</v>
@@ -7722,8 +8895,17 @@
       <c r="A337" t="s">
         <v>1</v>
       </c>
+      <c r="B337" t="s">
+        <v>577</v>
+      </c>
       <c r="C337" t="s">
         <v>215</v>
+      </c>
+      <c r="D337" t="s">
+        <v>577</v>
+      </c>
+      <c r="E337" t="s">
+        <v>577</v>
       </c>
       <c r="F337" s="3" t="s">
         <v>343</v>
@@ -7733,8 +8915,17 @@
       <c r="A338" t="s">
         <v>1</v>
       </c>
+      <c r="B338" t="s">
+        <v>577</v>
+      </c>
       <c r="C338" t="s">
         <v>215</v>
+      </c>
+      <c r="D338" t="s">
+        <v>577</v>
+      </c>
+      <c r="E338" t="s">
+        <v>577</v>
       </c>
       <c r="F338" s="3" t="s">
         <v>344</v>
@@ -7744,8 +8935,17 @@
       <c r="A339" t="s">
         <v>1</v>
       </c>
+      <c r="B339" t="s">
+        <v>577</v>
+      </c>
       <c r="C339" t="s">
         <v>215</v>
+      </c>
+      <c r="D339" t="s">
+        <v>577</v>
+      </c>
+      <c r="E339" t="s">
+        <v>577</v>
       </c>
       <c r="F339" s="3" t="s">
         <v>345</v>
@@ -7755,8 +8955,17 @@
       <c r="A340" t="s">
         <v>1</v>
       </c>
+      <c r="B340" t="s">
+        <v>577</v>
+      </c>
       <c r="C340" t="s">
         <v>215</v>
+      </c>
+      <c r="D340" t="s">
+        <v>577</v>
+      </c>
+      <c r="E340" t="s">
+        <v>577</v>
       </c>
       <c r="F340" s="3" t="s">
         <v>346</v>
@@ -7766,8 +8975,17 @@
       <c r="A341" t="s">
         <v>1</v>
       </c>
+      <c r="B341" t="s">
+        <v>577</v>
+      </c>
       <c r="C341" t="s">
         <v>215</v>
+      </c>
+      <c r="D341" t="s">
+        <v>577</v>
+      </c>
+      <c r="E341" t="s">
+        <v>577</v>
       </c>
       <c r="F341" s="3" t="s">
         <v>347</v>
@@ -7777,8 +8995,17 @@
       <c r="A342" t="s">
         <v>1</v>
       </c>
+      <c r="B342" t="s">
+        <v>577</v>
+      </c>
       <c r="C342" t="s">
         <v>215</v>
+      </c>
+      <c r="D342" t="s">
+        <v>577</v>
+      </c>
+      <c r="E342" t="s">
+        <v>577</v>
       </c>
       <c r="F342" s="3" t="s">
         <v>348</v>
@@ -7788,8 +9015,17 @@
       <c r="A343" t="s">
         <v>1</v>
       </c>
+      <c r="B343" t="s">
+        <v>577</v>
+      </c>
       <c r="C343" t="s">
         <v>215</v>
+      </c>
+      <c r="D343" t="s">
+        <v>577</v>
+      </c>
+      <c r="E343" t="s">
+        <v>577</v>
       </c>
       <c r="F343" s="3" t="s">
         <v>571</v>
@@ -7799,8 +9035,17 @@
       <c r="A344" t="s">
         <v>1</v>
       </c>
+      <c r="B344" t="s">
+        <v>577</v>
+      </c>
       <c r="C344" t="s">
         <v>215</v>
+      </c>
+      <c r="D344" t="s">
+        <v>577</v>
+      </c>
+      <c r="E344" t="s">
+        <v>577</v>
       </c>
       <c r="F344" s="3" t="s">
         <v>349</v>
@@ -7810,8 +9055,17 @@
       <c r="A345" t="s">
         <v>1</v>
       </c>
+      <c r="B345" t="s">
+        <v>577</v>
+      </c>
       <c r="C345" t="s">
         <v>215</v>
+      </c>
+      <c r="D345" t="s">
+        <v>577</v>
+      </c>
+      <c r="E345" t="s">
+        <v>577</v>
       </c>
       <c r="F345" s="3" t="s">
         <v>350</v>
@@ -7821,8 +9075,17 @@
       <c r="A346" t="s">
         <v>1</v>
       </c>
+      <c r="B346" t="s">
+        <v>577</v>
+      </c>
       <c r="C346" t="s">
         <v>215</v>
+      </c>
+      <c r="D346" t="s">
+        <v>577</v>
+      </c>
+      <c r="E346" t="s">
+        <v>577</v>
       </c>
       <c r="F346" s="3" t="s">
         <v>351</v>
@@ -7832,8 +9095,17 @@
       <c r="A347" t="s">
         <v>1</v>
       </c>
+      <c r="B347" t="s">
+        <v>577</v>
+      </c>
       <c r="C347" t="s">
         <v>215</v>
+      </c>
+      <c r="D347" t="s">
+        <v>577</v>
+      </c>
+      <c r="E347" t="s">
+        <v>577</v>
       </c>
       <c r="F347" s="3" t="s">
         <v>352</v>
@@ -7843,8 +9115,17 @@
       <c r="A348" t="s">
         <v>1</v>
       </c>
+      <c r="B348" t="s">
+        <v>577</v>
+      </c>
       <c r="C348" t="s">
         <v>215</v>
+      </c>
+      <c r="D348" t="s">
+        <v>577</v>
+      </c>
+      <c r="E348" t="s">
+        <v>577</v>
       </c>
       <c r="F348" s="3" t="s">
         <v>353</v>
@@ -7854,8 +9135,17 @@
       <c r="A349" t="s">
         <v>1</v>
       </c>
+      <c r="B349" t="s">
+        <v>577</v>
+      </c>
       <c r="C349" t="s">
         <v>215</v>
+      </c>
+      <c r="D349" t="s">
+        <v>577</v>
+      </c>
+      <c r="E349" t="s">
+        <v>577</v>
       </c>
       <c r="F349" s="3" t="s">
         <v>354</v>
@@ -7865,8 +9155,17 @@
       <c r="A350" t="s">
         <v>1</v>
       </c>
+      <c r="B350" t="s">
+        <v>577</v>
+      </c>
       <c r="C350" t="s">
         <v>215</v>
+      </c>
+      <c r="D350" t="s">
+        <v>577</v>
+      </c>
+      <c r="E350" t="s">
+        <v>577</v>
       </c>
       <c r="F350" s="3" t="s">
         <v>355</v>
@@ -7876,8 +9175,17 @@
       <c r="A351" t="s">
         <v>1</v>
       </c>
+      <c r="B351" t="s">
+        <v>577</v>
+      </c>
       <c r="C351" t="s">
         <v>215</v>
+      </c>
+      <c r="D351" t="s">
+        <v>577</v>
+      </c>
+      <c r="E351" t="s">
+        <v>577</v>
       </c>
       <c r="F351" s="3" t="s">
         <v>356</v>
@@ -7887,8 +9195,17 @@
       <c r="A352" t="s">
         <v>1</v>
       </c>
+      <c r="B352" t="s">
+        <v>577</v>
+      </c>
       <c r="C352" t="s">
         <v>215</v>
+      </c>
+      <c r="D352" t="s">
+        <v>577</v>
+      </c>
+      <c r="E352" t="s">
+        <v>577</v>
       </c>
       <c r="F352" s="3" t="s">
         <v>357</v>
@@ -7898,8 +9215,17 @@
       <c r="A353" t="s">
         <v>1</v>
       </c>
+      <c r="B353" t="s">
+        <v>577</v>
+      </c>
       <c r="C353" t="s">
         <v>215</v>
+      </c>
+      <c r="D353" t="s">
+        <v>577</v>
+      </c>
+      <c r="E353" t="s">
+        <v>577</v>
       </c>
       <c r="F353" s="3" t="s">
         <v>358</v>
@@ -7909,8 +9235,17 @@
       <c r="A354" t="s">
         <v>1</v>
       </c>
+      <c r="B354" t="s">
+        <v>577</v>
+      </c>
       <c r="C354" t="s">
         <v>215</v>
+      </c>
+      <c r="D354" t="s">
+        <v>577</v>
+      </c>
+      <c r="E354" t="s">
+        <v>577</v>
       </c>
       <c r="F354" s="3" t="s">
         <v>359</v>
@@ -7920,8 +9255,17 @@
       <c r="A355" t="s">
         <v>1</v>
       </c>
+      <c r="B355" t="s">
+        <v>577</v>
+      </c>
       <c r="C355" t="s">
         <v>215</v>
+      </c>
+      <c r="D355" t="s">
+        <v>577</v>
+      </c>
+      <c r="E355" t="s">
+        <v>577</v>
       </c>
       <c r="F355" s="3" t="s">
         <v>360</v>
@@ -7931,8 +9275,17 @@
       <c r="A356" t="s">
         <v>1</v>
       </c>
+      <c r="B356" t="s">
+        <v>577</v>
+      </c>
       <c r="C356" t="s">
         <v>215</v>
+      </c>
+      <c r="D356" t="s">
+        <v>577</v>
+      </c>
+      <c r="E356" t="s">
+        <v>577</v>
       </c>
       <c r="F356" s="3" t="s">
         <v>361</v>
@@ -7942,8 +9295,17 @@
       <c r="A357" t="s">
         <v>1</v>
       </c>
+      <c r="B357" t="s">
+        <v>577</v>
+      </c>
       <c r="C357" t="s">
         <v>215</v>
+      </c>
+      <c r="D357" t="s">
+        <v>577</v>
+      </c>
+      <c r="E357" t="s">
+        <v>577</v>
       </c>
       <c r="F357" s="3" t="s">
         <v>362</v>
@@ -7953,8 +9315,17 @@
       <c r="A358" t="s">
         <v>1</v>
       </c>
+      <c r="B358" t="s">
+        <v>577</v>
+      </c>
       <c r="C358" t="s">
         <v>215</v>
+      </c>
+      <c r="D358" t="s">
+        <v>577</v>
+      </c>
+      <c r="E358" t="s">
+        <v>577</v>
       </c>
       <c r="F358" s="3" t="s">
         <v>363</v>
@@ -7964,8 +9335,17 @@
       <c r="A359" t="s">
         <v>1</v>
       </c>
+      <c r="B359" t="s">
+        <v>577</v>
+      </c>
       <c r="C359" t="s">
         <v>215</v>
+      </c>
+      <c r="D359" t="s">
+        <v>577</v>
+      </c>
+      <c r="E359" t="s">
+        <v>577</v>
       </c>
       <c r="F359" s="3" t="s">
         <v>364</v>
@@ -7975,8 +9355,17 @@
       <c r="A360" t="s">
         <v>1</v>
       </c>
+      <c r="B360" t="s">
+        <v>577</v>
+      </c>
       <c r="C360" t="s">
         <v>215</v>
+      </c>
+      <c r="D360" t="s">
+        <v>577</v>
+      </c>
+      <c r="E360" t="s">
+        <v>577</v>
       </c>
       <c r="F360" s="3" t="s">
         <v>365</v>
@@ -7986,8 +9375,17 @@
       <c r="A361" t="s">
         <v>1</v>
       </c>
+      <c r="B361" t="s">
+        <v>577</v>
+      </c>
       <c r="C361" t="s">
         <v>215</v>
+      </c>
+      <c r="D361" t="s">
+        <v>577</v>
+      </c>
+      <c r="E361" t="s">
+        <v>577</v>
       </c>
       <c r="F361" s="3" t="s">
         <v>366</v>
@@ -7997,8 +9395,17 @@
       <c r="A362" t="s">
         <v>1</v>
       </c>
+      <c r="B362" t="s">
+        <v>577</v>
+      </c>
       <c r="C362" t="s">
         <v>215</v>
+      </c>
+      <c r="D362" t="s">
+        <v>577</v>
+      </c>
+      <c r="E362" t="s">
+        <v>577</v>
       </c>
       <c r="F362" s="3" t="s">
         <v>367</v>
@@ -8008,8 +9415,17 @@
       <c r="A363" t="s">
         <v>1</v>
       </c>
+      <c r="B363" t="s">
+        <v>577</v>
+      </c>
       <c r="C363" t="s">
         <v>215</v>
+      </c>
+      <c r="D363" t="s">
+        <v>577</v>
+      </c>
+      <c r="E363" t="s">
+        <v>577</v>
       </c>
       <c r="F363" s="3" t="s">
         <v>368</v>
@@ -8019,8 +9435,17 @@
       <c r="A364" t="s">
         <v>1</v>
       </c>
+      <c r="B364" t="s">
+        <v>577</v>
+      </c>
       <c r="C364" t="s">
         <v>215</v>
+      </c>
+      <c r="D364" t="s">
+        <v>577</v>
+      </c>
+      <c r="E364" t="s">
+        <v>577</v>
       </c>
       <c r="F364" s="3" t="s">
         <v>369</v>
@@ -8030,8 +9455,17 @@
       <c r="A365" t="s">
         <v>1</v>
       </c>
+      <c r="B365" t="s">
+        <v>577</v>
+      </c>
       <c r="C365" t="s">
         <v>215</v>
+      </c>
+      <c r="D365" t="s">
+        <v>577</v>
+      </c>
+      <c r="E365" t="s">
+        <v>577</v>
       </c>
       <c r="F365" s="3" t="s">
         <v>370</v>
@@ -8041,8 +9475,17 @@
       <c r="A366" t="s">
         <v>1</v>
       </c>
+      <c r="B366" t="s">
+        <v>577</v>
+      </c>
       <c r="C366" t="s">
         <v>215</v>
+      </c>
+      <c r="D366" t="s">
+        <v>577</v>
+      </c>
+      <c r="E366" t="s">
+        <v>577</v>
       </c>
       <c r="F366" s="3" t="s">
         <v>371</v>
@@ -8052,8 +9495,17 @@
       <c r="A367" t="s">
         <v>1</v>
       </c>
+      <c r="B367" t="s">
+        <v>577</v>
+      </c>
       <c r="C367" t="s">
         <v>215</v>
+      </c>
+      <c r="D367" t="s">
+        <v>577</v>
+      </c>
+      <c r="E367" t="s">
+        <v>577</v>
       </c>
       <c r="F367" s="3" t="s">
         <v>372</v>
@@ -8063,8 +9515,17 @@
       <c r="A368" t="s">
         <v>1</v>
       </c>
+      <c r="B368" t="s">
+        <v>577</v>
+      </c>
       <c r="C368" t="s">
         <v>215</v>
+      </c>
+      <c r="D368" t="s">
+        <v>577</v>
+      </c>
+      <c r="E368" t="s">
+        <v>577</v>
       </c>
       <c r="F368" s="3" t="s">
         <v>373</v>
@@ -8074,8 +9535,17 @@
       <c r="A369" t="s">
         <v>1</v>
       </c>
+      <c r="B369" t="s">
+        <v>577</v>
+      </c>
       <c r="C369" t="s">
         <v>215</v>
+      </c>
+      <c r="D369" t="s">
+        <v>577</v>
+      </c>
+      <c r="E369" t="s">
+        <v>577</v>
       </c>
       <c r="F369" s="3" t="s">
         <v>374</v>
@@ -8085,8 +9555,17 @@
       <c r="A370" t="s">
         <v>1</v>
       </c>
+      <c r="B370" t="s">
+        <v>577</v>
+      </c>
       <c r="C370" t="s">
         <v>215</v>
+      </c>
+      <c r="D370" t="s">
+        <v>577</v>
+      </c>
+      <c r="E370" t="s">
+        <v>577</v>
       </c>
       <c r="F370" s="3" t="s">
         <v>375</v>
@@ -8096,8 +9575,17 @@
       <c r="A371" t="s">
         <v>1</v>
       </c>
+      <c r="B371" t="s">
+        <v>577</v>
+      </c>
       <c r="C371" t="s">
         <v>215</v>
+      </c>
+      <c r="D371" t="s">
+        <v>577</v>
+      </c>
+      <c r="E371" t="s">
+        <v>577</v>
       </c>
       <c r="F371" s="3" t="s">
         <v>376</v>
@@ -8107,8 +9595,17 @@
       <c r="A372" t="s">
         <v>1</v>
       </c>
+      <c r="B372" t="s">
+        <v>577</v>
+      </c>
       <c r="C372" t="s">
         <v>215</v>
+      </c>
+      <c r="D372" t="s">
+        <v>577</v>
+      </c>
+      <c r="E372" t="s">
+        <v>577</v>
       </c>
       <c r="F372" s="3" t="s">
         <v>377</v>
@@ -8118,8 +9615,17 @@
       <c r="A373" t="s">
         <v>1</v>
       </c>
+      <c r="B373" t="s">
+        <v>577</v>
+      </c>
       <c r="C373" t="s">
         <v>215</v>
+      </c>
+      <c r="D373" t="s">
+        <v>577</v>
+      </c>
+      <c r="E373" t="s">
+        <v>577</v>
       </c>
       <c r="F373" s="3" t="s">
         <v>378</v>
@@ -8129,8 +9635,17 @@
       <c r="A374" t="s">
         <v>1</v>
       </c>
+      <c r="B374" t="s">
+        <v>577</v>
+      </c>
       <c r="C374" t="s">
         <v>215</v>
+      </c>
+      <c r="D374" t="s">
+        <v>577</v>
+      </c>
+      <c r="E374" t="s">
+        <v>577</v>
       </c>
       <c r="F374" s="3" t="s">
         <v>379</v>
@@ -8140,8 +9655,17 @@
       <c r="A375" t="s">
         <v>1</v>
       </c>
+      <c r="B375" t="s">
+        <v>577</v>
+      </c>
       <c r="C375" t="s">
         <v>215</v>
+      </c>
+      <c r="D375" t="s">
+        <v>577</v>
+      </c>
+      <c r="E375" t="s">
+        <v>577</v>
       </c>
       <c r="F375" s="3" t="s">
         <v>380</v>
@@ -8151,8 +9675,17 @@
       <c r="A376" t="s">
         <v>1</v>
       </c>
+      <c r="B376" t="s">
+        <v>577</v>
+      </c>
       <c r="C376" t="s">
         <v>215</v>
+      </c>
+      <c r="D376" t="s">
+        <v>577</v>
+      </c>
+      <c r="E376" t="s">
+        <v>577</v>
       </c>
       <c r="F376" s="3" t="s">
         <v>381</v>
@@ -8162,8 +9695,17 @@
       <c r="A377" t="s">
         <v>1</v>
       </c>
+      <c r="B377" t="s">
+        <v>577</v>
+      </c>
       <c r="C377" t="s">
         <v>215</v>
+      </c>
+      <c r="D377" t="s">
+        <v>577</v>
+      </c>
+      <c r="E377" t="s">
+        <v>577</v>
       </c>
       <c r="F377" s="3" t="s">
         <v>382</v>
@@ -8173,8 +9715,17 @@
       <c r="A378" t="s">
         <v>1</v>
       </c>
+      <c r="B378" t="s">
+        <v>577</v>
+      </c>
       <c r="C378" t="s">
         <v>215</v>
+      </c>
+      <c r="D378" t="s">
+        <v>577</v>
+      </c>
+      <c r="E378" t="s">
+        <v>577</v>
       </c>
       <c r="F378" s="3" t="s">
         <v>383</v>
@@ -8184,8 +9735,17 @@
       <c r="A379" t="s">
         <v>1</v>
       </c>
+      <c r="B379" t="s">
+        <v>577</v>
+      </c>
       <c r="C379" t="s">
         <v>215</v>
+      </c>
+      <c r="D379" t="s">
+        <v>577</v>
+      </c>
+      <c r="E379" t="s">
+        <v>577</v>
       </c>
       <c r="F379" s="3" t="s">
         <v>384</v>
@@ -8195,8 +9755,17 @@
       <c r="A380" t="s">
         <v>1</v>
       </c>
+      <c r="B380" t="s">
+        <v>577</v>
+      </c>
       <c r="C380" t="s">
         <v>215</v>
+      </c>
+      <c r="D380" t="s">
+        <v>577</v>
+      </c>
+      <c r="E380" t="s">
+        <v>577</v>
       </c>
       <c r="F380" s="3" t="s">
         <v>385</v>
@@ -8206,8 +9775,17 @@
       <c r="A381" t="s">
         <v>1</v>
       </c>
+      <c r="B381" t="s">
+        <v>577</v>
+      </c>
       <c r="C381" t="s">
         <v>215</v>
+      </c>
+      <c r="D381" t="s">
+        <v>577</v>
+      </c>
+      <c r="E381" t="s">
+        <v>577</v>
       </c>
       <c r="F381" s="3" t="s">
         <v>386</v>
@@ -8217,8 +9795,17 @@
       <c r="A382" t="s">
         <v>1</v>
       </c>
+      <c r="B382" t="s">
+        <v>577</v>
+      </c>
       <c r="C382" t="s">
         <v>215</v>
+      </c>
+      <c r="D382" t="s">
+        <v>577</v>
+      </c>
+      <c r="E382" t="s">
+        <v>577</v>
       </c>
       <c r="F382" s="3" t="s">
         <v>387</v>
@@ -8228,8 +9815,17 @@
       <c r="A383" t="s">
         <v>1</v>
       </c>
+      <c r="B383" t="s">
+        <v>577</v>
+      </c>
       <c r="C383" t="s">
         <v>215</v>
+      </c>
+      <c r="D383" t="s">
+        <v>577</v>
+      </c>
+      <c r="E383" t="s">
+        <v>577</v>
       </c>
       <c r="F383" s="3" t="s">
         <v>388</v>
@@ -8239,8 +9835,17 @@
       <c r="A384" t="s">
         <v>1</v>
       </c>
+      <c r="B384" t="s">
+        <v>577</v>
+      </c>
       <c r="C384" t="s">
         <v>215</v>
+      </c>
+      <c r="D384" t="s">
+        <v>577</v>
+      </c>
+      <c r="E384" t="s">
+        <v>577</v>
       </c>
       <c r="F384" s="3" t="s">
         <v>389</v>
@@ -8250,8 +9855,17 @@
       <c r="A385" t="s">
         <v>1</v>
       </c>
+      <c r="B385" t="s">
+        <v>577</v>
+      </c>
       <c r="C385" t="s">
         <v>215</v>
+      </c>
+      <c r="D385" t="s">
+        <v>577</v>
+      </c>
+      <c r="E385" t="s">
+        <v>577</v>
       </c>
       <c r="F385" s="3" t="s">
         <v>390</v>
@@ -8261,8 +9875,17 @@
       <c r="A386" t="s">
         <v>1</v>
       </c>
+      <c r="B386" t="s">
+        <v>577</v>
+      </c>
       <c r="C386" t="s">
         <v>215</v>
+      </c>
+      <c r="D386" t="s">
+        <v>577</v>
+      </c>
+      <c r="E386" t="s">
+        <v>577</v>
       </c>
       <c r="F386" s="3" t="s">
         <v>391</v>
@@ -8272,8 +9895,17 @@
       <c r="A387" t="s">
         <v>1</v>
       </c>
+      <c r="B387" t="s">
+        <v>577</v>
+      </c>
       <c r="C387" t="s">
         <v>215</v>
+      </c>
+      <c r="D387" t="s">
+        <v>577</v>
+      </c>
+      <c r="E387" t="s">
+        <v>577</v>
       </c>
       <c r="F387" s="3" t="s">
         <v>392</v>
@@ -8283,8 +9915,17 @@
       <c r="A388" t="s">
         <v>1</v>
       </c>
+      <c r="B388" t="s">
+        <v>577</v>
+      </c>
       <c r="C388" t="s">
         <v>215</v>
+      </c>
+      <c r="D388" t="s">
+        <v>577</v>
+      </c>
+      <c r="E388" t="s">
+        <v>577</v>
       </c>
       <c r="F388" s="3" t="s">
         <v>393</v>
@@ -8294,8 +9935,17 @@
       <c r="A389" t="s">
         <v>1</v>
       </c>
+      <c r="B389" t="s">
+        <v>577</v>
+      </c>
       <c r="C389" t="s">
         <v>215</v>
+      </c>
+      <c r="D389" t="s">
+        <v>577</v>
+      </c>
+      <c r="E389" t="s">
+        <v>577</v>
       </c>
       <c r="F389" s="3" t="s">
         <v>394</v>
@@ -8305,8 +9955,17 @@
       <c r="A390" t="s">
         <v>1</v>
       </c>
+      <c r="B390" t="s">
+        <v>577</v>
+      </c>
       <c r="C390" t="s">
         <v>215</v>
+      </c>
+      <c r="D390" t="s">
+        <v>577</v>
+      </c>
+      <c r="E390" t="s">
+        <v>577</v>
       </c>
       <c r="F390" s="3" t="s">
         <v>395</v>
@@ -8316,8 +9975,17 @@
       <c r="A391" t="s">
         <v>1</v>
       </c>
+      <c r="B391" t="s">
+        <v>577</v>
+      </c>
       <c r="C391" t="s">
         <v>215</v>
+      </c>
+      <c r="D391" t="s">
+        <v>577</v>
+      </c>
+      <c r="E391" t="s">
+        <v>577</v>
       </c>
       <c r="F391" s="3" t="s">
         <v>396</v>
@@ -8327,8 +9995,17 @@
       <c r="A392" t="s">
         <v>1</v>
       </c>
+      <c r="B392" t="s">
+        <v>577</v>
+      </c>
       <c r="C392" t="s">
         <v>215</v>
+      </c>
+      <c r="D392" t="s">
+        <v>577</v>
+      </c>
+      <c r="E392" t="s">
+        <v>577</v>
       </c>
       <c r="F392" s="3" t="s">
         <v>397</v>
@@ -8338,8 +10015,17 @@
       <c r="A393" t="s">
         <v>1</v>
       </c>
+      <c r="B393" t="s">
+        <v>577</v>
+      </c>
       <c r="C393" t="s">
         <v>215</v>
+      </c>
+      <c r="D393" t="s">
+        <v>577</v>
+      </c>
+      <c r="E393" t="s">
+        <v>577</v>
       </c>
       <c r="F393" s="3" t="s">
         <v>398</v>
@@ -8349,8 +10035,17 @@
       <c r="A394" t="s">
         <v>1</v>
       </c>
+      <c r="B394" t="s">
+        <v>577</v>
+      </c>
       <c r="C394" t="s">
         <v>215</v>
+      </c>
+      <c r="D394" t="s">
+        <v>577</v>
+      </c>
+      <c r="E394" t="s">
+        <v>577</v>
       </c>
       <c r="F394" s="3" t="s">
         <v>399</v>
@@ -8360,8 +10055,17 @@
       <c r="A395" t="s">
         <v>1</v>
       </c>
+      <c r="B395" t="s">
+        <v>577</v>
+      </c>
       <c r="C395" t="s">
         <v>215</v>
+      </c>
+      <c r="D395" t="s">
+        <v>577</v>
+      </c>
+      <c r="E395" t="s">
+        <v>577</v>
       </c>
       <c r="F395" s="3" t="s">
         <v>400</v>
@@ -8371,8 +10075,17 @@
       <c r="A396" t="s">
         <v>1</v>
       </c>
+      <c r="B396" t="s">
+        <v>577</v>
+      </c>
       <c r="C396" t="s">
         <v>215</v>
+      </c>
+      <c r="D396" t="s">
+        <v>577</v>
+      </c>
+      <c r="E396" t="s">
+        <v>577</v>
       </c>
       <c r="F396" s="3" t="s">
         <v>401</v>
@@ -8382,8 +10095,17 @@
       <c r="A397" t="s">
         <v>1</v>
       </c>
+      <c r="B397" t="s">
+        <v>577</v>
+      </c>
       <c r="C397" t="s">
         <v>215</v>
+      </c>
+      <c r="D397" t="s">
+        <v>577</v>
+      </c>
+      <c r="E397" t="s">
+        <v>577</v>
       </c>
       <c r="F397" s="3" t="s">
         <v>402</v>
@@ -8393,8 +10115,17 @@
       <c r="A398" t="s">
         <v>1</v>
       </c>
+      <c r="B398" t="s">
+        <v>577</v>
+      </c>
       <c r="C398" t="s">
         <v>215</v>
+      </c>
+      <c r="D398" t="s">
+        <v>577</v>
+      </c>
+      <c r="E398" t="s">
+        <v>577</v>
       </c>
       <c r="F398" s="3" t="s">
         <v>403</v>
@@ -8404,8 +10135,17 @@
       <c r="A399" t="s">
         <v>1</v>
       </c>
+      <c r="B399" t="s">
+        <v>577</v>
+      </c>
       <c r="C399" t="s">
         <v>215</v>
+      </c>
+      <c r="D399" t="s">
+        <v>577</v>
+      </c>
+      <c r="E399" t="s">
+        <v>577</v>
       </c>
       <c r="F399" s="3" t="s">
         <v>404</v>
@@ -8415,8 +10155,17 @@
       <c r="A400" t="s">
         <v>1</v>
       </c>
+      <c r="B400" t="s">
+        <v>577</v>
+      </c>
       <c r="C400" t="s">
         <v>215</v>
+      </c>
+      <c r="D400" t="s">
+        <v>577</v>
+      </c>
+      <c r="E400" t="s">
+        <v>577</v>
       </c>
       <c r="F400" s="3" t="s">
         <v>405</v>
@@ -8426,8 +10175,17 @@
       <c r="A401" t="s">
         <v>1</v>
       </c>
+      <c r="B401" t="s">
+        <v>577</v>
+      </c>
       <c r="C401" t="s">
         <v>215</v>
+      </c>
+      <c r="D401" t="s">
+        <v>577</v>
+      </c>
+      <c r="E401" t="s">
+        <v>577</v>
       </c>
       <c r="F401" s="3" t="s">
         <v>406</v>
@@ -8437,8 +10195,17 @@
       <c r="A402" t="s">
         <v>1</v>
       </c>
+      <c r="B402" t="s">
+        <v>577</v>
+      </c>
       <c r="C402" t="s">
         <v>215</v>
+      </c>
+      <c r="D402" t="s">
+        <v>577</v>
+      </c>
+      <c r="E402" t="s">
+        <v>577</v>
       </c>
       <c r="F402" s="3" t="s">
         <v>407</v>
@@ -8448,8 +10215,17 @@
       <c r="A403" t="s">
         <v>1</v>
       </c>
+      <c r="B403" t="s">
+        <v>577</v>
+      </c>
       <c r="C403" t="s">
         <v>215</v>
+      </c>
+      <c r="D403" t="s">
+        <v>577</v>
+      </c>
+      <c r="E403" t="s">
+        <v>577</v>
       </c>
       <c r="F403" s="3" t="s">
         <v>408</v>
@@ -8459,8 +10235,17 @@
       <c r="A404" t="s">
         <v>1</v>
       </c>
+      <c r="B404" t="s">
+        <v>577</v>
+      </c>
       <c r="C404" t="s">
         <v>215</v>
+      </c>
+      <c r="D404" t="s">
+        <v>577</v>
+      </c>
+      <c r="E404" t="s">
+        <v>577</v>
       </c>
       <c r="F404" s="3" t="s">
         <v>409</v>
@@ -8470,8 +10255,17 @@
       <c r="A405" t="s">
         <v>1</v>
       </c>
+      <c r="B405" t="s">
+        <v>577</v>
+      </c>
       <c r="C405" t="s">
         <v>215</v>
+      </c>
+      <c r="D405" t="s">
+        <v>577</v>
+      </c>
+      <c r="E405" t="s">
+        <v>577</v>
       </c>
       <c r="F405" s="3" t="s">
         <v>410</v>
@@ -8481,8 +10275,17 @@
       <c r="A406" t="s">
         <v>1</v>
       </c>
+      <c r="B406" t="s">
+        <v>577</v>
+      </c>
       <c r="C406" t="s">
         <v>215</v>
+      </c>
+      <c r="D406" t="s">
+        <v>577</v>
+      </c>
+      <c r="E406" t="s">
+        <v>577</v>
       </c>
       <c r="F406" s="3" t="s">
         <v>411</v>
@@ -8492,8 +10295,17 @@
       <c r="A407" t="s">
         <v>1</v>
       </c>
+      <c r="B407" t="s">
+        <v>577</v>
+      </c>
       <c r="C407" t="s">
         <v>215</v>
+      </c>
+      <c r="D407" t="s">
+        <v>577</v>
+      </c>
+      <c r="E407" t="s">
+        <v>577</v>
       </c>
       <c r="F407" s="3" t="s">
         <v>412</v>
@@ -8503,8 +10315,17 @@
       <c r="A408" t="s">
         <v>1</v>
       </c>
+      <c r="B408" t="s">
+        <v>577</v>
+      </c>
       <c r="C408" t="s">
         <v>215</v>
+      </c>
+      <c r="D408" t="s">
+        <v>577</v>
+      </c>
+      <c r="E408" t="s">
+        <v>577</v>
       </c>
       <c r="F408" s="3" t="s">
         <v>413</v>
@@ -8514,8 +10335,17 @@
       <c r="A409" t="s">
         <v>1</v>
       </c>
+      <c r="B409" t="s">
+        <v>577</v>
+      </c>
       <c r="C409" t="s">
         <v>215</v>
+      </c>
+      <c r="D409" t="s">
+        <v>577</v>
+      </c>
+      <c r="E409" t="s">
+        <v>577</v>
       </c>
       <c r="F409" s="3" t="s">
         <v>414</v>
@@ -8525,8 +10355,17 @@
       <c r="A410" t="s">
         <v>1</v>
       </c>
+      <c r="B410" t="s">
+        <v>577</v>
+      </c>
       <c r="C410" t="s">
         <v>215</v>
+      </c>
+      <c r="D410" t="s">
+        <v>577</v>
+      </c>
+      <c r="E410" t="s">
+        <v>577</v>
       </c>
       <c r="F410" s="3" t="s">
         <v>415</v>
@@ -8536,8 +10375,17 @@
       <c r="A411" t="s">
         <v>1</v>
       </c>
+      <c r="B411" t="s">
+        <v>577</v>
+      </c>
       <c r="C411" t="s">
         <v>215</v>
+      </c>
+      <c r="D411" t="s">
+        <v>577</v>
+      </c>
+      <c r="E411" t="s">
+        <v>577</v>
       </c>
       <c r="F411" s="3" t="s">
         <v>416</v>
@@ -8547,8 +10395,17 @@
       <c r="A412" t="s">
         <v>1</v>
       </c>
+      <c r="B412" t="s">
+        <v>577</v>
+      </c>
       <c r="C412" t="s">
         <v>215</v>
+      </c>
+      <c r="D412" t="s">
+        <v>577</v>
+      </c>
+      <c r="E412" t="s">
+        <v>577</v>
       </c>
       <c r="F412" s="3" t="s">
         <v>417</v>
@@ -8558,8 +10415,17 @@
       <c r="A413" t="s">
         <v>1</v>
       </c>
+      <c r="B413" t="s">
+        <v>577</v>
+      </c>
       <c r="C413" t="s">
         <v>215</v>
+      </c>
+      <c r="D413" t="s">
+        <v>577</v>
+      </c>
+      <c r="E413" t="s">
+        <v>577</v>
       </c>
       <c r="F413" s="3" t="s">
         <v>418</v>
@@ -8569,8 +10435,17 @@
       <c r="A414" t="s">
         <v>1</v>
       </c>
+      <c r="B414" t="s">
+        <v>577</v>
+      </c>
       <c r="C414" t="s">
         <v>215</v>
+      </c>
+      <c r="D414" t="s">
+        <v>577</v>
+      </c>
+      <c r="E414" t="s">
+        <v>577</v>
       </c>
       <c r="F414" s="3" t="s">
         <v>419</v>
@@ -8580,8 +10455,17 @@
       <c r="A415" t="s">
         <v>1</v>
       </c>
+      <c r="B415" t="s">
+        <v>577</v>
+      </c>
       <c r="C415" t="s">
         <v>215</v>
+      </c>
+      <c r="D415" t="s">
+        <v>577</v>
+      </c>
+      <c r="E415" t="s">
+        <v>577</v>
       </c>
       <c r="F415" s="3" t="s">
         <v>420</v>
@@ -8591,8 +10475,17 @@
       <c r="A416" t="s">
         <v>1</v>
       </c>
+      <c r="B416" t="s">
+        <v>577</v>
+      </c>
       <c r="C416" t="s">
         <v>215</v>
+      </c>
+      <c r="D416" t="s">
+        <v>577</v>
+      </c>
+      <c r="E416" t="s">
+        <v>577</v>
       </c>
       <c r="F416" s="3" t="s">
         <v>421</v>
@@ -8602,8 +10495,17 @@
       <c r="A417" t="s">
         <v>1</v>
       </c>
+      <c r="B417" t="s">
+        <v>577</v>
+      </c>
       <c r="C417" t="s">
         <v>215</v>
+      </c>
+      <c r="D417" t="s">
+        <v>577</v>
+      </c>
+      <c r="E417" t="s">
+        <v>577</v>
       </c>
       <c r="F417" s="3" t="s">
         <v>422</v>
@@ -8613,8 +10515,17 @@
       <c r="A418" t="s">
         <v>1</v>
       </c>
+      <c r="B418" t="s">
+        <v>577</v>
+      </c>
       <c r="C418" t="s">
         <v>215</v>
+      </c>
+      <c r="D418" t="s">
+        <v>577</v>
+      </c>
+      <c r="E418" t="s">
+        <v>577</v>
       </c>
       <c r="F418" s="3" t="s">
         <v>423</v>
@@ -8624,8 +10535,17 @@
       <c r="A419" t="s">
         <v>1</v>
       </c>
+      <c r="B419" t="s">
+        <v>577</v>
+      </c>
       <c r="C419" t="s">
         <v>215</v>
+      </c>
+      <c r="D419" t="s">
+        <v>577</v>
+      </c>
+      <c r="E419" t="s">
+        <v>577</v>
       </c>
       <c r="F419" s="3" t="s">
         <v>424</v>
@@ -8635,8 +10555,17 @@
       <c r="A420" t="s">
         <v>1</v>
       </c>
+      <c r="B420" t="s">
+        <v>577</v>
+      </c>
       <c r="C420" t="s">
         <v>215</v>
+      </c>
+      <c r="D420" t="s">
+        <v>577</v>
+      </c>
+      <c r="E420" t="s">
+        <v>577</v>
       </c>
       <c r="F420" s="3" t="s">
         <v>425</v>
@@ -8646,8 +10575,17 @@
       <c r="A421" t="s">
         <v>1</v>
       </c>
+      <c r="B421" t="s">
+        <v>577</v>
+      </c>
       <c r="C421" t="s">
         <v>215</v>
+      </c>
+      <c r="D421" t="s">
+        <v>577</v>
+      </c>
+      <c r="E421" t="s">
+        <v>577</v>
       </c>
       <c r="F421" s="3" t="s">
         <v>426</v>
@@ -8657,8 +10595,17 @@
       <c r="A422" t="s">
         <v>1</v>
       </c>
+      <c r="B422" t="s">
+        <v>577</v>
+      </c>
       <c r="C422" t="s">
         <v>215</v>
+      </c>
+      <c r="D422" t="s">
+        <v>577</v>
+      </c>
+      <c r="E422" t="s">
+        <v>577</v>
       </c>
       <c r="F422" s="3" t="s">
         <v>427</v>
@@ -8668,8 +10615,17 @@
       <c r="A423" t="s">
         <v>1</v>
       </c>
+      <c r="B423" t="s">
+        <v>577</v>
+      </c>
       <c r="C423" t="s">
         <v>215</v>
+      </c>
+      <c r="D423" t="s">
+        <v>577</v>
+      </c>
+      <c r="E423" t="s">
+        <v>577</v>
       </c>
       <c r="F423" s="3" t="s">
         <v>428</v>
@@ -8679,8 +10635,17 @@
       <c r="A424" t="s">
         <v>1</v>
       </c>
+      <c r="B424" t="s">
+        <v>577</v>
+      </c>
       <c r="C424" t="s">
         <v>215</v>
+      </c>
+      <c r="D424" t="s">
+        <v>577</v>
+      </c>
+      <c r="E424" t="s">
+        <v>577</v>
       </c>
       <c r="F424" s="3" t="s">
         <v>429</v>
@@ -8690,8 +10655,17 @@
       <c r="A425" t="s">
         <v>1</v>
       </c>
+      <c r="B425" t="s">
+        <v>577</v>
+      </c>
       <c r="C425" t="s">
         <v>215</v>
+      </c>
+      <c r="D425" t="s">
+        <v>577</v>
+      </c>
+      <c r="E425" t="s">
+        <v>577</v>
       </c>
       <c r="F425" s="3" t="s">
         <v>430</v>
@@ -8701,8 +10675,17 @@
       <c r="A426" t="s">
         <v>1</v>
       </c>
+      <c r="B426" t="s">
+        <v>577</v>
+      </c>
       <c r="C426" t="s">
         <v>215</v>
+      </c>
+      <c r="D426" t="s">
+        <v>577</v>
+      </c>
+      <c r="E426" t="s">
+        <v>577</v>
       </c>
       <c r="F426" s="3" t="s">
         <v>431</v>
@@ -8712,8 +10695,17 @@
       <c r="A427" t="s">
         <v>1</v>
       </c>
+      <c r="B427" t="s">
+        <v>577</v>
+      </c>
       <c r="C427" t="s">
         <v>215</v>
+      </c>
+      <c r="D427" t="s">
+        <v>577</v>
+      </c>
+      <c r="E427" t="s">
+        <v>577</v>
       </c>
       <c r="F427" s="3" t="s">
         <v>432</v>
@@ -8723,8 +10715,17 @@
       <c r="A428" t="s">
         <v>1</v>
       </c>
+      <c r="B428" t="s">
+        <v>577</v>
+      </c>
       <c r="C428" t="s">
         <v>215</v>
+      </c>
+      <c r="D428" t="s">
+        <v>577</v>
+      </c>
+      <c r="E428" t="s">
+        <v>577</v>
       </c>
       <c r="F428" s="3" t="s">
         <v>433</v>
@@ -8734,8 +10735,17 @@
       <c r="A429" t="s">
         <v>1</v>
       </c>
+      <c r="B429" t="s">
+        <v>577</v>
+      </c>
       <c r="C429" t="s">
         <v>215</v>
+      </c>
+      <c r="D429" t="s">
+        <v>577</v>
+      </c>
+      <c r="E429" t="s">
+        <v>577</v>
       </c>
       <c r="F429" s="3" t="s">
         <v>434</v>
@@ -8745,8 +10755,17 @@
       <c r="A430" t="s">
         <v>1</v>
       </c>
+      <c r="B430" t="s">
+        <v>577</v>
+      </c>
       <c r="C430" t="s">
         <v>215</v>
+      </c>
+      <c r="D430" t="s">
+        <v>577</v>
+      </c>
+      <c r="E430" t="s">
+        <v>577</v>
       </c>
       <c r="F430" s="3" t="s">
         <v>435</v>
@@ -8756,8 +10775,17 @@
       <c r="A431" t="s">
         <v>1</v>
       </c>
+      <c r="B431" t="s">
+        <v>577</v>
+      </c>
       <c r="C431" t="s">
         <v>215</v>
+      </c>
+      <c r="D431" t="s">
+        <v>577</v>
+      </c>
+      <c r="E431" t="s">
+        <v>577</v>
       </c>
       <c r="F431" s="3" t="s">
         <v>436</v>
@@ -8767,8 +10795,17 @@
       <c r="A432" t="s">
         <v>1</v>
       </c>
+      <c r="B432" t="s">
+        <v>577</v>
+      </c>
       <c r="C432" t="s">
         <v>215</v>
+      </c>
+      <c r="D432" t="s">
+        <v>577</v>
+      </c>
+      <c r="E432" t="s">
+        <v>577</v>
       </c>
       <c r="F432" s="3" t="s">
         <v>437</v>
@@ -8778,8 +10815,17 @@
       <c r="A433" t="s">
         <v>1</v>
       </c>
+      <c r="B433" t="s">
+        <v>577</v>
+      </c>
       <c r="C433" t="s">
         <v>215</v>
+      </c>
+      <c r="D433" t="s">
+        <v>577</v>
+      </c>
+      <c r="E433" t="s">
+        <v>577</v>
       </c>
       <c r="F433" s="3" t="s">
         <v>438</v>
@@ -8789,8 +10835,17 @@
       <c r="A434" t="s">
         <v>1</v>
       </c>
+      <c r="B434" t="s">
+        <v>577</v>
+      </c>
       <c r="C434" t="s">
         <v>215</v>
+      </c>
+      <c r="D434" t="s">
+        <v>577</v>
+      </c>
+      <c r="E434" t="s">
+        <v>577</v>
       </c>
       <c r="F434" s="3" t="s">
         <v>439</v>
@@ -8800,8 +10855,17 @@
       <c r="A435" t="s">
         <v>1</v>
       </c>
+      <c r="B435" t="s">
+        <v>577</v>
+      </c>
       <c r="C435" t="s">
         <v>215</v>
+      </c>
+      <c r="D435" t="s">
+        <v>577</v>
+      </c>
+      <c r="E435" t="s">
+        <v>577</v>
       </c>
       <c r="F435" s="3" t="s">
         <v>440</v>
@@ -8811,8 +10875,17 @@
       <c r="A436" t="s">
         <v>1</v>
       </c>
+      <c r="B436" t="s">
+        <v>577</v>
+      </c>
       <c r="C436" t="s">
         <v>215</v>
+      </c>
+      <c r="D436" t="s">
+        <v>577</v>
+      </c>
+      <c r="E436" t="s">
+        <v>577</v>
       </c>
       <c r="F436" s="3" t="s">
         <v>441</v>
@@ -8822,8 +10895,17 @@
       <c r="A437" t="s">
         <v>1</v>
       </c>
+      <c r="B437" t="s">
+        <v>577</v>
+      </c>
       <c r="C437" t="s">
         <v>215</v>
+      </c>
+      <c r="D437" t="s">
+        <v>577</v>
+      </c>
+      <c r="E437" t="s">
+        <v>577</v>
       </c>
       <c r="F437" s="3" t="s">
         <v>442</v>
@@ -8833,8 +10915,17 @@
       <c r="A438" t="s">
         <v>1</v>
       </c>
+      <c r="B438" t="s">
+        <v>577</v>
+      </c>
       <c r="C438" t="s">
         <v>215</v>
+      </c>
+      <c r="D438" t="s">
+        <v>577</v>
+      </c>
+      <c r="E438" t="s">
+        <v>577</v>
       </c>
       <c r="F438" s="3" t="s">
         <v>443</v>
@@ -8844,8 +10935,17 @@
       <c r="A439" t="s">
         <v>1</v>
       </c>
+      <c r="B439" t="s">
+        <v>577</v>
+      </c>
       <c r="C439" t="s">
         <v>215</v>
+      </c>
+      <c r="D439" t="s">
+        <v>577</v>
+      </c>
+      <c r="E439" t="s">
+        <v>577</v>
       </c>
       <c r="F439" s="3" t="s">
         <v>444</v>
@@ -8855,8 +10955,17 @@
       <c r="A440" t="s">
         <v>1</v>
       </c>
+      <c r="B440" t="s">
+        <v>577</v>
+      </c>
       <c r="C440" t="s">
         <v>215</v>
+      </c>
+      <c r="D440" t="s">
+        <v>577</v>
+      </c>
+      <c r="E440" t="s">
+        <v>577</v>
       </c>
       <c r="F440" s="3" t="s">
         <v>445</v>
@@ -8866,8 +10975,17 @@
       <c r="A441" t="s">
         <v>1</v>
       </c>
+      <c r="B441" t="s">
+        <v>577</v>
+      </c>
       <c r="C441" t="s">
         <v>215</v>
+      </c>
+      <c r="D441" t="s">
+        <v>577</v>
+      </c>
+      <c r="E441" t="s">
+        <v>577</v>
       </c>
       <c r="F441" s="3" t="s">
         <v>446</v>
@@ -8877,8 +10995,17 @@
       <c r="A442" t="s">
         <v>1</v>
       </c>
+      <c r="B442" t="s">
+        <v>577</v>
+      </c>
       <c r="C442" t="s">
         <v>215</v>
+      </c>
+      <c r="D442" t="s">
+        <v>577</v>
+      </c>
+      <c r="E442" t="s">
+        <v>577</v>
       </c>
       <c r="F442" s="3" t="s">
         <v>447</v>
@@ -8888,8 +11015,17 @@
       <c r="A443" t="s">
         <v>1</v>
       </c>
+      <c r="B443" t="s">
+        <v>577</v>
+      </c>
       <c r="C443" t="s">
         <v>215</v>
+      </c>
+      <c r="D443" t="s">
+        <v>577</v>
+      </c>
+      <c r="E443" t="s">
+        <v>577</v>
       </c>
       <c r="F443" s="3" t="s">
         <v>448</v>
@@ -8899,8 +11035,17 @@
       <c r="A444" t="s">
         <v>1</v>
       </c>
+      <c r="B444" t="s">
+        <v>577</v>
+      </c>
       <c r="C444" t="s">
         <v>215</v>
+      </c>
+      <c r="D444" t="s">
+        <v>577</v>
+      </c>
+      <c r="E444" t="s">
+        <v>577</v>
       </c>
       <c r="F444" s="3" t="s">
         <v>449</v>
@@ -8910,8 +11055,17 @@
       <c r="A445" t="s">
         <v>1</v>
       </c>
+      <c r="B445" t="s">
+        <v>577</v>
+      </c>
       <c r="C445" t="s">
         <v>215</v>
+      </c>
+      <c r="D445" t="s">
+        <v>577</v>
+      </c>
+      <c r="E445" t="s">
+        <v>577</v>
       </c>
       <c r="F445" s="3" t="s">
         <v>450</v>
@@ -8921,8 +11075,17 @@
       <c r="A446" t="s">
         <v>1</v>
       </c>
+      <c r="B446" t="s">
+        <v>577</v>
+      </c>
       <c r="C446" t="s">
         <v>215</v>
+      </c>
+      <c r="D446" t="s">
+        <v>577</v>
+      </c>
+      <c r="E446" t="s">
+        <v>577</v>
       </c>
       <c r="F446" s="3" t="s">
         <v>451</v>
@@ -8932,8 +11095,17 @@
       <c r="A447" t="s">
         <v>1</v>
       </c>
+      <c r="B447" t="s">
+        <v>577</v>
+      </c>
       <c r="C447" t="s">
         <v>215</v>
+      </c>
+      <c r="D447" t="s">
+        <v>577</v>
+      </c>
+      <c r="E447" t="s">
+        <v>577</v>
       </c>
       <c r="F447" s="3" t="s">
         <v>452</v>
@@ -8943,8 +11115,17 @@
       <c r="A448" t="s">
         <v>1</v>
       </c>
+      <c r="B448" t="s">
+        <v>577</v>
+      </c>
       <c r="C448" t="s">
         <v>215</v>
+      </c>
+      <c r="D448" t="s">
+        <v>577</v>
+      </c>
+      <c r="E448" t="s">
+        <v>577</v>
       </c>
       <c r="F448" s="3" t="s">
         <v>453</v>
@@ -8954,8 +11135,17 @@
       <c r="A449" t="s">
         <v>1</v>
       </c>
+      <c r="B449" t="s">
+        <v>577</v>
+      </c>
       <c r="C449" t="s">
         <v>215</v>
+      </c>
+      <c r="D449" t="s">
+        <v>577</v>
+      </c>
+      <c r="E449" t="s">
+        <v>577</v>
       </c>
       <c r="F449" s="3" t="s">
         <v>454</v>
@@ -8965,8 +11155,17 @@
       <c r="A450" t="s">
         <v>1</v>
       </c>
+      <c r="B450" t="s">
+        <v>577</v>
+      </c>
       <c r="C450" t="s">
         <v>215</v>
+      </c>
+      <c r="D450" t="s">
+        <v>577</v>
+      </c>
+      <c r="E450" t="s">
+        <v>577</v>
       </c>
       <c r="F450" s="3" t="s">
         <v>455</v>
@@ -8976,8 +11175,17 @@
       <c r="A451" t="s">
         <v>1</v>
       </c>
+      <c r="B451" t="s">
+        <v>577</v>
+      </c>
       <c r="C451" t="s">
         <v>215</v>
+      </c>
+      <c r="D451" t="s">
+        <v>577</v>
+      </c>
+      <c r="E451" t="s">
+        <v>577</v>
       </c>
       <c r="F451" s="3" t="s">
         <v>456</v>
@@ -8987,8 +11195,17 @@
       <c r="A452" t="s">
         <v>1</v>
       </c>
+      <c r="B452" t="s">
+        <v>577</v>
+      </c>
       <c r="C452" t="s">
         <v>215</v>
+      </c>
+      <c r="D452" t="s">
+        <v>577</v>
+      </c>
+      <c r="E452" t="s">
+        <v>577</v>
       </c>
       <c r="F452" s="3" t="s">
         <v>457</v>
@@ -8998,8 +11215,17 @@
       <c r="A453" t="s">
         <v>1</v>
       </c>
+      <c r="B453" t="s">
+        <v>577</v>
+      </c>
       <c r="C453" t="s">
         <v>215</v>
+      </c>
+      <c r="D453" t="s">
+        <v>577</v>
+      </c>
+      <c r="E453" t="s">
+        <v>577</v>
       </c>
       <c r="F453" s="3" t="s">
         <v>458</v>
@@ -9009,8 +11235,17 @@
       <c r="A454" t="s">
         <v>1</v>
       </c>
+      <c r="B454" t="s">
+        <v>577</v>
+      </c>
       <c r="C454" t="s">
         <v>215</v>
+      </c>
+      <c r="D454" t="s">
+        <v>577</v>
+      </c>
+      <c r="E454" t="s">
+        <v>577</v>
       </c>
       <c r="F454" s="3" t="s">
         <v>459</v>
@@ -9020,8 +11255,17 @@
       <c r="A455" t="s">
         <v>1</v>
       </c>
+      <c r="B455" t="s">
+        <v>577</v>
+      </c>
       <c r="C455" t="s">
         <v>215</v>
+      </c>
+      <c r="D455" t="s">
+        <v>577</v>
+      </c>
+      <c r="E455" t="s">
+        <v>577</v>
       </c>
       <c r="F455" s="3" t="s">
         <v>460</v>
@@ -9031,8 +11275,17 @@
       <c r="A456" t="s">
         <v>1</v>
       </c>
+      <c r="B456" t="s">
+        <v>577</v>
+      </c>
       <c r="C456" t="s">
         <v>215</v>
+      </c>
+      <c r="D456" t="s">
+        <v>577</v>
+      </c>
+      <c r="E456" t="s">
+        <v>577</v>
       </c>
       <c r="F456" s="3" t="s">
         <v>461</v>
@@ -9042,8 +11295,17 @@
       <c r="A457" t="s">
         <v>1</v>
       </c>
+      <c r="B457" t="s">
+        <v>577</v>
+      </c>
       <c r="C457" t="s">
         <v>215</v>
+      </c>
+      <c r="D457" t="s">
+        <v>577</v>
+      </c>
+      <c r="E457" t="s">
+        <v>577</v>
       </c>
       <c r="F457" s="3" t="s">
         <v>462</v>
@@ -9053,8 +11315,17 @@
       <c r="A458" t="s">
         <v>1</v>
       </c>
+      <c r="B458" t="s">
+        <v>577</v>
+      </c>
       <c r="C458" t="s">
         <v>215</v>
+      </c>
+      <c r="D458" t="s">
+        <v>577</v>
+      </c>
+      <c r="E458" t="s">
+        <v>577</v>
       </c>
       <c r="F458" s="3" t="s">
         <v>463</v>
@@ -9064,8 +11335,17 @@
       <c r="A459" t="s">
         <v>1</v>
       </c>
+      <c r="B459" t="s">
+        <v>577</v>
+      </c>
       <c r="C459" t="s">
         <v>215</v>
+      </c>
+      <c r="D459" t="s">
+        <v>577</v>
+      </c>
+      <c r="E459" t="s">
+        <v>577</v>
       </c>
       <c r="F459" s="3" t="s">
         <v>464</v>
@@ -9075,8 +11355,17 @@
       <c r="A460" t="s">
         <v>1</v>
       </c>
+      <c r="B460" t="s">
+        <v>577</v>
+      </c>
       <c r="C460" t="s">
         <v>215</v>
+      </c>
+      <c r="D460" t="s">
+        <v>577</v>
+      </c>
+      <c r="E460" t="s">
+        <v>577</v>
       </c>
       <c r="F460" s="3" t="s">
         <v>465</v>
@@ -9086,8 +11375,17 @@
       <c r="A461" t="s">
         <v>1</v>
       </c>
+      <c r="B461" t="s">
+        <v>577</v>
+      </c>
       <c r="C461" t="s">
         <v>215</v>
+      </c>
+      <c r="D461" t="s">
+        <v>577</v>
+      </c>
+      <c r="E461" t="s">
+        <v>577</v>
       </c>
       <c r="F461" s="3" t="s">
         <v>466</v>
@@ -9097,8 +11395,17 @@
       <c r="A462" t="s">
         <v>1</v>
       </c>
+      <c r="B462" t="s">
+        <v>577</v>
+      </c>
       <c r="C462" t="s">
         <v>215</v>
+      </c>
+      <c r="D462" t="s">
+        <v>577</v>
+      </c>
+      <c r="E462" t="s">
+        <v>577</v>
       </c>
       <c r="F462" s="3" t="s">
         <v>467</v>
@@ -9108,8 +11415,17 @@
       <c r="A463" t="s">
         <v>1</v>
       </c>
+      <c r="B463" t="s">
+        <v>577</v>
+      </c>
       <c r="C463" t="s">
         <v>215</v>
+      </c>
+      <c r="D463" t="s">
+        <v>577</v>
+      </c>
+      <c r="E463" t="s">
+        <v>577</v>
       </c>
       <c r="F463" s="3" t="s">
         <v>468</v>
@@ -9119,8 +11435,17 @@
       <c r="A464" t="s">
         <v>1</v>
       </c>
+      <c r="B464" t="s">
+        <v>577</v>
+      </c>
       <c r="C464" t="s">
         <v>215</v>
+      </c>
+      <c r="D464" t="s">
+        <v>577</v>
+      </c>
+      <c r="E464" t="s">
+        <v>577</v>
       </c>
       <c r="F464" s="3" t="s">
         <v>469</v>
@@ -9130,8 +11455,17 @@
       <c r="A465" t="s">
         <v>1</v>
       </c>
+      <c r="B465" t="s">
+        <v>577</v>
+      </c>
       <c r="C465" t="s">
         <v>215</v>
+      </c>
+      <c r="D465" t="s">
+        <v>577</v>
+      </c>
+      <c r="E465" t="s">
+        <v>577</v>
       </c>
       <c r="F465" s="3" t="s">
         <v>470</v>
@@ -9141,8 +11475,17 @@
       <c r="A466" t="s">
         <v>1</v>
       </c>
+      <c r="B466" t="s">
+        <v>577</v>
+      </c>
       <c r="C466" t="s">
         <v>215</v>
+      </c>
+      <c r="D466" t="s">
+        <v>577</v>
+      </c>
+      <c r="E466" t="s">
+        <v>577</v>
       </c>
       <c r="F466" s="3" t="s">
         <v>471</v>
@@ -9152,8 +11495,17 @@
       <c r="A467" t="s">
         <v>1</v>
       </c>
+      <c r="B467" t="s">
+        <v>577</v>
+      </c>
       <c r="C467" t="s">
         <v>215</v>
+      </c>
+      <c r="D467" t="s">
+        <v>577</v>
+      </c>
+      <c r="E467" t="s">
+        <v>577</v>
       </c>
       <c r="F467" s="3" t="s">
         <v>472</v>
@@ -9163,8 +11515,17 @@
       <c r="A468" t="s">
         <v>1</v>
       </c>
+      <c r="B468" t="s">
+        <v>577</v>
+      </c>
       <c r="C468" t="s">
         <v>215</v>
+      </c>
+      <c r="D468" t="s">
+        <v>577</v>
+      </c>
+      <c r="E468" t="s">
+        <v>577</v>
       </c>
       <c r="F468" s="3" t="s">
         <v>473</v>
@@ -9174,8 +11535,17 @@
       <c r="A469" t="s">
         <v>1</v>
       </c>
+      <c r="B469" t="s">
+        <v>577</v>
+      </c>
       <c r="C469" t="s">
         <v>215</v>
+      </c>
+      <c r="D469" t="s">
+        <v>577</v>
+      </c>
+      <c r="E469" t="s">
+        <v>577</v>
       </c>
       <c r="F469" s="3" t="s">
         <v>474</v>
@@ -9185,8 +11555,17 @@
       <c r="A470" t="s">
         <v>1</v>
       </c>
+      <c r="B470" t="s">
+        <v>577</v>
+      </c>
       <c r="C470" t="s">
         <v>215</v>
+      </c>
+      <c r="D470" t="s">
+        <v>577</v>
+      </c>
+      <c r="E470" t="s">
+        <v>577</v>
       </c>
       <c r="F470" s="3" t="s">
         <v>475</v>
@@ -9196,8 +11575,17 @@
       <c r="A471" t="s">
         <v>1</v>
       </c>
+      <c r="B471" t="s">
+        <v>577</v>
+      </c>
       <c r="C471" t="s">
         <v>215</v>
+      </c>
+      <c r="D471" t="s">
+        <v>577</v>
+      </c>
+      <c r="E471" t="s">
+        <v>577</v>
       </c>
       <c r="F471" s="3" t="s">
         <v>476</v>
@@ -9207,8 +11595,17 @@
       <c r="A472" t="s">
         <v>1</v>
       </c>
+      <c r="B472" t="s">
+        <v>577</v>
+      </c>
       <c r="C472" t="s">
         <v>215</v>
+      </c>
+      <c r="D472" t="s">
+        <v>577</v>
+      </c>
+      <c r="E472" t="s">
+        <v>577</v>
       </c>
       <c r="F472" s="3" t="s">
         <v>477</v>
@@ -9218,8 +11615,17 @@
       <c r="A473" t="s">
         <v>1</v>
       </c>
+      <c r="B473" t="s">
+        <v>577</v>
+      </c>
       <c r="C473" t="s">
         <v>215</v>
+      </c>
+      <c r="D473" t="s">
+        <v>577</v>
+      </c>
+      <c r="E473" t="s">
+        <v>577</v>
       </c>
       <c r="F473" s="3" t="s">
         <v>478</v>
@@ -9229,8 +11635,17 @@
       <c r="A474" t="s">
         <v>1</v>
       </c>
+      <c r="B474" t="s">
+        <v>577</v>
+      </c>
       <c r="C474" t="s">
         <v>215</v>
+      </c>
+      <c r="D474" t="s">
+        <v>577</v>
+      </c>
+      <c r="E474" t="s">
+        <v>577</v>
       </c>
       <c r="F474" s="3" t="s">
         <v>479</v>
@@ -9240,8 +11655,17 @@
       <c r="A475" t="s">
         <v>1</v>
       </c>
+      <c r="B475" t="s">
+        <v>577</v>
+      </c>
       <c r="C475" t="s">
         <v>215</v>
+      </c>
+      <c r="D475" t="s">
+        <v>577</v>
+      </c>
+      <c r="E475" t="s">
+        <v>577</v>
       </c>
       <c r="F475" s="3" t="s">
         <v>480</v>
@@ -9251,8 +11675,17 @@
       <c r="A476" t="s">
         <v>1</v>
       </c>
+      <c r="B476" t="s">
+        <v>577</v>
+      </c>
       <c r="C476" t="s">
         <v>215</v>
+      </c>
+      <c r="D476" t="s">
+        <v>577</v>
+      </c>
+      <c r="E476" t="s">
+        <v>577</v>
       </c>
       <c r="F476" s="3" t="s">
         <v>481</v>
@@ -9262,8 +11695,17 @@
       <c r="A477" t="s">
         <v>1</v>
       </c>
+      <c r="B477" t="s">
+        <v>577</v>
+      </c>
       <c r="C477" t="s">
         <v>215</v>
+      </c>
+      <c r="D477" t="s">
+        <v>577</v>
+      </c>
+      <c r="E477" t="s">
+        <v>577</v>
       </c>
       <c r="F477" s="3" t="s">
         <v>482</v>
@@ -9273,8 +11715,17 @@
       <c r="A478" t="s">
         <v>1</v>
       </c>
+      <c r="B478" t="s">
+        <v>577</v>
+      </c>
       <c r="C478" t="s">
         <v>215</v>
+      </c>
+      <c r="D478" t="s">
+        <v>577</v>
+      </c>
+      <c r="E478" t="s">
+        <v>577</v>
       </c>
       <c r="F478" s="3" t="s">
         <v>483</v>
@@ -9284,8 +11735,17 @@
       <c r="A479" t="s">
         <v>1</v>
       </c>
+      <c r="B479" t="s">
+        <v>577</v>
+      </c>
       <c r="C479" t="s">
         <v>215</v>
+      </c>
+      <c r="D479" t="s">
+        <v>577</v>
+      </c>
+      <c r="E479" t="s">
+        <v>577</v>
       </c>
       <c r="F479" s="3" t="s">
         <v>484</v>
@@ -9295,8 +11755,17 @@
       <c r="A480" t="s">
         <v>1</v>
       </c>
+      <c r="B480" t="s">
+        <v>577</v>
+      </c>
       <c r="C480" t="s">
         <v>215</v>
+      </c>
+      <c r="D480" t="s">
+        <v>577</v>
+      </c>
+      <c r="E480" t="s">
+        <v>577</v>
       </c>
       <c r="F480" s="3" t="s">
         <v>485</v>
@@ -9306,8 +11775,17 @@
       <c r="A481" t="s">
         <v>1</v>
       </c>
+      <c r="B481" t="s">
+        <v>577</v>
+      </c>
       <c r="C481" t="s">
         <v>215</v>
+      </c>
+      <c r="D481" t="s">
+        <v>577</v>
+      </c>
+      <c r="E481" t="s">
+        <v>577</v>
       </c>
       <c r="F481" s="3" t="s">
         <v>486</v>
@@ -9317,8 +11795,17 @@
       <c r="A482" t="s">
         <v>1</v>
       </c>
+      <c r="B482" t="s">
+        <v>577</v>
+      </c>
       <c r="C482" t="s">
         <v>215</v>
+      </c>
+      <c r="D482" t="s">
+        <v>577</v>
+      </c>
+      <c r="E482" t="s">
+        <v>577</v>
       </c>
       <c r="F482" s="3" t="s">
         <v>487</v>
@@ -9328,8 +11815,17 @@
       <c r="A483" t="s">
         <v>1</v>
       </c>
+      <c r="B483" t="s">
+        <v>577</v>
+      </c>
       <c r="C483" t="s">
         <v>215</v>
+      </c>
+      <c r="D483" t="s">
+        <v>577</v>
+      </c>
+      <c r="E483" t="s">
+        <v>577</v>
       </c>
       <c r="F483" s="3" t="s">
         <v>488</v>
@@ -9339,8 +11835,17 @@
       <c r="A484" t="s">
         <v>1</v>
       </c>
+      <c r="B484" t="s">
+        <v>577</v>
+      </c>
       <c r="C484" t="s">
         <v>215</v>
+      </c>
+      <c r="D484" t="s">
+        <v>577</v>
+      </c>
+      <c r="E484" t="s">
+        <v>577</v>
       </c>
       <c r="F484" s="3" t="s">
         <v>489</v>
@@ -9350,8 +11855,17 @@
       <c r="A485" t="s">
         <v>1</v>
       </c>
+      <c r="B485" t="s">
+        <v>577</v>
+      </c>
       <c r="C485" t="s">
         <v>215</v>
+      </c>
+      <c r="D485" t="s">
+        <v>577</v>
+      </c>
+      <c r="E485" t="s">
+        <v>577</v>
       </c>
       <c r="F485" s="3" t="s">
         <v>490</v>
@@ -9361,8 +11875,17 @@
       <c r="A486" t="s">
         <v>1</v>
       </c>
+      <c r="B486" t="s">
+        <v>577</v>
+      </c>
       <c r="C486" t="s">
         <v>215</v>
+      </c>
+      <c r="D486" t="s">
+        <v>577</v>
+      </c>
+      <c r="E486" t="s">
+        <v>577</v>
       </c>
       <c r="F486" s="3" t="s">
         <v>491</v>
@@ -9372,8 +11895,17 @@
       <c r="A487" t="s">
         <v>1</v>
       </c>
+      <c r="B487" t="s">
+        <v>577</v>
+      </c>
       <c r="C487" t="s">
         <v>215</v>
+      </c>
+      <c r="D487" t="s">
+        <v>577</v>
+      </c>
+      <c r="E487" t="s">
+        <v>577</v>
       </c>
       <c r="F487" s="3" t="s">
         <v>492</v>
@@ -9383,8 +11915,17 @@
       <c r="A488" t="s">
         <v>1</v>
       </c>
+      <c r="B488" t="s">
+        <v>577</v>
+      </c>
       <c r="C488" t="s">
         <v>215</v>
+      </c>
+      <c r="D488" t="s">
+        <v>577</v>
+      </c>
+      <c r="E488" t="s">
+        <v>577</v>
       </c>
       <c r="F488" s="3" t="s">
         <v>493</v>
@@ -9394,8 +11935,17 @@
       <c r="A489" t="s">
         <v>1</v>
       </c>
+      <c r="B489" t="s">
+        <v>577</v>
+      </c>
       <c r="C489" t="s">
         <v>215</v>
+      </c>
+      <c r="D489" t="s">
+        <v>577</v>
+      </c>
+      <c r="E489" t="s">
+        <v>577</v>
       </c>
       <c r="F489" s="3" t="s">
         <v>494</v>
@@ -9405,8 +11955,17 @@
       <c r="A490" t="s">
         <v>1</v>
       </c>
+      <c r="B490" t="s">
+        <v>577</v>
+      </c>
       <c r="C490" t="s">
         <v>215</v>
+      </c>
+      <c r="D490" t="s">
+        <v>577</v>
+      </c>
+      <c r="E490" t="s">
+        <v>577</v>
       </c>
       <c r="F490" s="3" t="s">
         <v>495</v>
@@ -9416,8 +11975,17 @@
       <c r="A491" t="s">
         <v>1</v>
       </c>
+      <c r="B491" t="s">
+        <v>577</v>
+      </c>
       <c r="C491" t="s">
         <v>215</v>
+      </c>
+      <c r="D491" t="s">
+        <v>577</v>
+      </c>
+      <c r="E491" t="s">
+        <v>577</v>
       </c>
       <c r="F491" s="3" t="s">
         <v>496</v>
@@ -9427,8 +11995,17 @@
       <c r="A492" t="s">
         <v>1</v>
       </c>
+      <c r="B492" t="s">
+        <v>577</v>
+      </c>
       <c r="C492" t="s">
         <v>215</v>
+      </c>
+      <c r="D492" t="s">
+        <v>577</v>
+      </c>
+      <c r="E492" t="s">
+        <v>577</v>
       </c>
       <c r="F492" s="3" t="s">
         <v>497</v>
@@ -9438,8 +12015,17 @@
       <c r="A493" t="s">
         <v>1</v>
       </c>
+      <c r="B493" t="s">
+        <v>577</v>
+      </c>
       <c r="C493" t="s">
         <v>215</v>
+      </c>
+      <c r="D493" t="s">
+        <v>577</v>
+      </c>
+      <c r="E493" t="s">
+        <v>577</v>
       </c>
       <c r="F493" s="3" t="s">
         <v>498</v>
@@ -9449,8 +12035,17 @@
       <c r="A494" t="s">
         <v>1</v>
       </c>
+      <c r="B494" t="s">
+        <v>577</v>
+      </c>
       <c r="C494" t="s">
         <v>215</v>
+      </c>
+      <c r="D494" t="s">
+        <v>577</v>
+      </c>
+      <c r="E494" t="s">
+        <v>577</v>
       </c>
       <c r="F494" s="3" t="s">
         <v>499</v>
@@ -9460,8 +12055,17 @@
       <c r="A495" t="s">
         <v>1</v>
       </c>
+      <c r="B495" t="s">
+        <v>577</v>
+      </c>
       <c r="C495" t="s">
         <v>215</v>
+      </c>
+      <c r="D495" t="s">
+        <v>577</v>
+      </c>
+      <c r="E495" t="s">
+        <v>577</v>
       </c>
       <c r="F495" s="3" t="s">
         <v>500</v>
@@ -9471,8 +12075,17 @@
       <c r="A496" t="s">
         <v>1</v>
       </c>
+      <c r="B496" t="s">
+        <v>577</v>
+      </c>
       <c r="C496" t="s">
         <v>215</v>
+      </c>
+      <c r="D496" t="s">
+        <v>577</v>
+      </c>
+      <c r="E496" t="s">
+        <v>577</v>
       </c>
       <c r="F496" s="3" t="s">
         <v>501</v>
@@ -9482,8 +12095,17 @@
       <c r="A497" t="s">
         <v>1</v>
       </c>
+      <c r="B497" t="s">
+        <v>577</v>
+      </c>
       <c r="C497" t="s">
         <v>215</v>
+      </c>
+      <c r="D497" t="s">
+        <v>577</v>
+      </c>
+      <c r="E497" t="s">
+        <v>577</v>
       </c>
       <c r="F497" s="3" t="s">
         <v>502</v>
@@ -9493,8 +12115,17 @@
       <c r="A498" t="s">
         <v>1</v>
       </c>
+      <c r="B498" t="s">
+        <v>577</v>
+      </c>
       <c r="C498" t="s">
         <v>215</v>
+      </c>
+      <c r="D498" t="s">
+        <v>577</v>
+      </c>
+      <c r="E498" t="s">
+        <v>577</v>
       </c>
       <c r="F498" s="3" t="s">
         <v>503</v>
@@ -9504,8 +12135,17 @@
       <c r="A499" t="s">
         <v>1</v>
       </c>
+      <c r="B499" t="s">
+        <v>577</v>
+      </c>
       <c r="C499" t="s">
         <v>215</v>
+      </c>
+      <c r="D499" t="s">
+        <v>577</v>
+      </c>
+      <c r="E499" t="s">
+        <v>577</v>
       </c>
       <c r="F499" s="3" t="s">
         <v>504</v>
@@ -9515,8 +12155,17 @@
       <c r="A500" t="s">
         <v>1</v>
       </c>
+      <c r="B500" t="s">
+        <v>577</v>
+      </c>
       <c r="C500" t="s">
         <v>215</v>
+      </c>
+      <c r="D500" t="s">
+        <v>577</v>
+      </c>
+      <c r="E500" t="s">
+        <v>577</v>
       </c>
       <c r="F500" s="3" t="s">
         <v>505</v>
@@ -9526,8 +12175,17 @@
       <c r="A501" t="s">
         <v>1</v>
       </c>
+      <c r="B501" t="s">
+        <v>577</v>
+      </c>
       <c r="C501" t="s">
         <v>215</v>
+      </c>
+      <c r="D501" t="s">
+        <v>577</v>
+      </c>
+      <c r="E501" t="s">
+        <v>577</v>
       </c>
       <c r="F501" s="3" t="s">
         <v>506</v>
@@ -9537,8 +12195,17 @@
       <c r="A502" t="s">
         <v>1</v>
       </c>
+      <c r="B502" t="s">
+        <v>577</v>
+      </c>
       <c r="C502" t="s">
         <v>215</v>
+      </c>
+      <c r="D502" t="s">
+        <v>577</v>
+      </c>
+      <c r="E502" t="s">
+        <v>577</v>
       </c>
       <c r="F502" s="3" t="s">
         <v>507</v>
@@ -9548,8 +12215,17 @@
       <c r="A503" t="s">
         <v>1</v>
       </c>
+      <c r="B503" t="s">
+        <v>577</v>
+      </c>
       <c r="C503" t="s">
         <v>215</v>
+      </c>
+      <c r="D503" t="s">
+        <v>577</v>
+      </c>
+      <c r="E503" t="s">
+        <v>577</v>
       </c>
       <c r="F503" s="3" t="s">
         <v>508</v>
@@ -9559,8 +12235,17 @@
       <c r="A504" t="s">
         <v>1</v>
       </c>
+      <c r="B504" t="s">
+        <v>577</v>
+      </c>
       <c r="C504" t="s">
         <v>215</v>
+      </c>
+      <c r="D504" t="s">
+        <v>577</v>
+      </c>
+      <c r="E504" t="s">
+        <v>577</v>
       </c>
       <c r="F504" s="3" t="s">
         <v>509</v>
@@ -9570,8 +12255,17 @@
       <c r="A505" t="s">
         <v>1</v>
       </c>
+      <c r="B505" t="s">
+        <v>577</v>
+      </c>
       <c r="C505" t="s">
         <v>215</v>
+      </c>
+      <c r="D505" t="s">
+        <v>577</v>
+      </c>
+      <c r="E505" t="s">
+        <v>577</v>
       </c>
       <c r="F505" s="3" t="s">
         <v>510</v>
@@ -9581,8 +12275,17 @@
       <c r="A506" t="s">
         <v>1</v>
       </c>
+      <c r="B506" t="s">
+        <v>577</v>
+      </c>
       <c r="C506" t="s">
         <v>215</v>
+      </c>
+      <c r="D506" t="s">
+        <v>577</v>
+      </c>
+      <c r="E506" t="s">
+        <v>577</v>
       </c>
       <c r="F506" s="3" t="s">
         <v>511</v>
@@ -9592,8 +12295,17 @@
       <c r="A507" t="s">
         <v>1</v>
       </c>
+      <c r="B507" t="s">
+        <v>577</v>
+      </c>
       <c r="C507" t="s">
         <v>215</v>
+      </c>
+      <c r="D507" t="s">
+        <v>577</v>
+      </c>
+      <c r="E507" t="s">
+        <v>577</v>
       </c>
       <c r="F507" s="3" t="s">
         <v>512</v>
@@ -9603,8 +12315,17 @@
       <c r="A508" t="s">
         <v>1</v>
       </c>
+      <c r="B508" t="s">
+        <v>577</v>
+      </c>
       <c r="C508" t="s">
         <v>215</v>
+      </c>
+      <c r="D508" t="s">
+        <v>577</v>
+      </c>
+      <c r="E508" t="s">
+        <v>577</v>
       </c>
       <c r="F508" s="3" t="s">
         <v>513</v>
@@ -9614,8 +12335,17 @@
       <c r="A509" t="s">
         <v>1</v>
       </c>
+      <c r="B509" t="s">
+        <v>577</v>
+      </c>
       <c r="C509" t="s">
         <v>215</v>
+      </c>
+      <c r="D509" t="s">
+        <v>577</v>
+      </c>
+      <c r="E509" t="s">
+        <v>577</v>
       </c>
       <c r="F509" s="3" t="s">
         <v>514</v>
@@ -9625,8 +12355,17 @@
       <c r="A510" t="s">
         <v>1</v>
       </c>
+      <c r="B510" t="s">
+        <v>577</v>
+      </c>
       <c r="C510" t="s">
         <v>215</v>
+      </c>
+      <c r="D510" t="s">
+        <v>577</v>
+      </c>
+      <c r="E510" t="s">
+        <v>577</v>
       </c>
       <c r="F510" s="3" t="s">
         <v>515</v>
@@ -9636,8 +12375,17 @@
       <c r="A511" t="s">
         <v>1</v>
       </c>
+      <c r="B511" t="s">
+        <v>577</v>
+      </c>
       <c r="C511" t="s">
         <v>215</v>
+      </c>
+      <c r="D511" t="s">
+        <v>577</v>
+      </c>
+      <c r="E511" t="s">
+        <v>577</v>
       </c>
       <c r="F511" s="3" t="s">
         <v>516</v>
@@ -9647,8 +12395,17 @@
       <c r="A512" t="s">
         <v>1</v>
       </c>
+      <c r="B512" t="s">
+        <v>577</v>
+      </c>
       <c r="C512" t="s">
         <v>215</v>
+      </c>
+      <c r="D512" t="s">
+        <v>577</v>
+      </c>
+      <c r="E512" t="s">
+        <v>577</v>
       </c>
       <c r="F512" s="3" t="s">
         <v>517</v>
@@ -9658,8 +12415,17 @@
       <c r="A513" t="s">
         <v>1</v>
       </c>
+      <c r="B513" t="s">
+        <v>577</v>
+      </c>
       <c r="C513" t="s">
         <v>215</v>
+      </c>
+      <c r="D513" t="s">
+        <v>577</v>
+      </c>
+      <c r="E513" t="s">
+        <v>577</v>
       </c>
       <c r="F513" s="3" t="s">
         <v>518</v>
@@ -9669,8 +12435,17 @@
       <c r="A514" t="s">
         <v>1</v>
       </c>
+      <c r="B514" t="s">
+        <v>577</v>
+      </c>
       <c r="C514" t="s">
         <v>215</v>
+      </c>
+      <c r="D514" t="s">
+        <v>577</v>
+      </c>
+      <c r="E514" t="s">
+        <v>577</v>
       </c>
       <c r="F514" s="3" t="s">
         <v>519</v>
@@ -9680,8 +12455,17 @@
       <c r="A515" t="s">
         <v>1</v>
       </c>
+      <c r="B515" t="s">
+        <v>577</v>
+      </c>
       <c r="C515" t="s">
         <v>215</v>
+      </c>
+      <c r="D515" t="s">
+        <v>577</v>
+      </c>
+      <c r="E515" t="s">
+        <v>577</v>
       </c>
       <c r="F515" s="3" t="s">
         <v>520</v>
@@ -9691,8 +12475,17 @@
       <c r="A516" t="s">
         <v>1</v>
       </c>
+      <c r="B516" t="s">
+        <v>577</v>
+      </c>
       <c r="C516" t="s">
         <v>215</v>
+      </c>
+      <c r="D516" t="s">
+        <v>577</v>
+      </c>
+      <c r="E516" t="s">
+        <v>577</v>
       </c>
       <c r="F516" s="3" t="s">
         <v>521</v>
@@ -9702,8 +12495,17 @@
       <c r="A517" t="s">
         <v>1</v>
       </c>
+      <c r="B517" t="s">
+        <v>577</v>
+      </c>
       <c r="C517" t="s">
         <v>215</v>
+      </c>
+      <c r="D517" t="s">
+        <v>577</v>
+      </c>
+      <c r="E517" t="s">
+        <v>577</v>
       </c>
       <c r="F517" s="3" t="s">
         <v>522</v>
@@ -9713,8 +12515,17 @@
       <c r="A518" t="s">
         <v>1</v>
       </c>
+      <c r="B518" t="s">
+        <v>577</v>
+      </c>
       <c r="C518" t="s">
         <v>215</v>
+      </c>
+      <c r="D518" t="s">
+        <v>577</v>
+      </c>
+      <c r="E518" t="s">
+        <v>577</v>
       </c>
       <c r="F518" s="3" t="s">
         <v>523</v>
@@ -9724,8 +12535,17 @@
       <c r="A519" t="s">
         <v>1</v>
       </c>
+      <c r="B519" t="s">
+        <v>577</v>
+      </c>
       <c r="C519" t="s">
         <v>215</v>
+      </c>
+      <c r="D519" t="s">
+        <v>577</v>
+      </c>
+      <c r="E519" t="s">
+        <v>577</v>
       </c>
       <c r="F519" s="3" t="s">
         <v>524</v>
@@ -9735,8 +12555,17 @@
       <c r="A520" t="s">
         <v>1</v>
       </c>
+      <c r="B520" t="s">
+        <v>577</v>
+      </c>
       <c r="C520" t="s">
         <v>215</v>
+      </c>
+      <c r="D520" t="s">
+        <v>577</v>
+      </c>
+      <c r="E520" t="s">
+        <v>577</v>
       </c>
       <c r="F520" s="3" t="s">
         <v>525</v>
@@ -9746,8 +12575,17 @@
       <c r="A521" t="s">
         <v>1</v>
       </c>
+      <c r="B521" t="s">
+        <v>577</v>
+      </c>
       <c r="C521" t="s">
         <v>215</v>
+      </c>
+      <c r="D521" t="s">
+        <v>577</v>
+      </c>
+      <c r="E521" t="s">
+        <v>577</v>
       </c>
       <c r="F521" s="3" t="s">
         <v>526</v>
@@ -9757,8 +12595,17 @@
       <c r="A522" t="s">
         <v>1</v>
       </c>
+      <c r="B522" t="s">
+        <v>577</v>
+      </c>
       <c r="C522" t="s">
         <v>215</v>
+      </c>
+      <c r="D522" t="s">
+        <v>577</v>
+      </c>
+      <c r="E522" t="s">
+        <v>577</v>
       </c>
       <c r="F522" s="3" t="s">
         <v>527</v>
@@ -9768,8 +12615,17 @@
       <c r="A523" t="s">
         <v>1</v>
       </c>
+      <c r="B523" t="s">
+        <v>577</v>
+      </c>
       <c r="C523" t="s">
         <v>215</v>
+      </c>
+      <c r="D523" t="s">
+        <v>577</v>
+      </c>
+      <c r="E523" t="s">
+        <v>577</v>
       </c>
       <c r="F523" s="3" t="s">
         <v>528</v>
@@ -9779,8 +12635,17 @@
       <c r="A524" t="s">
         <v>1</v>
       </c>
+      <c r="B524" t="s">
+        <v>577</v>
+      </c>
       <c r="C524" t="s">
         <v>215</v>
+      </c>
+      <c r="D524" t="s">
+        <v>577</v>
+      </c>
+      <c r="E524" t="s">
+        <v>577</v>
       </c>
       <c r="F524" s="3" t="s">
         <v>529</v>
@@ -9790,8 +12655,17 @@
       <c r="A525" t="s">
         <v>1</v>
       </c>
+      <c r="B525" t="s">
+        <v>577</v>
+      </c>
       <c r="C525" t="s">
         <v>215</v>
+      </c>
+      <c r="D525" t="s">
+        <v>577</v>
+      </c>
+      <c r="E525" t="s">
+        <v>577</v>
       </c>
       <c r="F525" s="3" t="s">
         <v>530</v>
@@ -9801,8 +12675,17 @@
       <c r="A526" t="s">
         <v>1</v>
       </c>
+      <c r="B526" t="s">
+        <v>577</v>
+      </c>
       <c r="C526" t="s">
         <v>215</v>
+      </c>
+      <c r="D526" t="s">
+        <v>577</v>
+      </c>
+      <c r="E526" t="s">
+        <v>577</v>
       </c>
       <c r="F526" s="3" t="s">
         <v>531</v>
@@ -9812,8 +12695,17 @@
       <c r="A527" t="s">
         <v>1</v>
       </c>
+      <c r="B527" t="s">
+        <v>577</v>
+      </c>
       <c r="C527" t="s">
         <v>215</v>
+      </c>
+      <c r="D527" t="s">
+        <v>577</v>
+      </c>
+      <c r="E527" t="s">
+        <v>577</v>
       </c>
       <c r="F527" s="3" t="s">
         <v>532</v>
@@ -9823,8 +12715,17 @@
       <c r="A528" t="s">
         <v>1</v>
       </c>
+      <c r="B528" t="s">
+        <v>577</v>
+      </c>
       <c r="C528" t="s">
         <v>215</v>
+      </c>
+      <c r="D528" t="s">
+        <v>577</v>
+      </c>
+      <c r="E528" t="s">
+        <v>577</v>
       </c>
       <c r="F528" s="3" t="s">
         <v>533</v>
@@ -9834,8 +12735,17 @@
       <c r="A529" t="s">
         <v>1</v>
       </c>
+      <c r="B529" t="s">
+        <v>577</v>
+      </c>
       <c r="C529" t="s">
         <v>215</v>
+      </c>
+      <c r="D529" t="s">
+        <v>577</v>
+      </c>
+      <c r="E529" t="s">
+        <v>577</v>
       </c>
       <c r="F529" s="3" t="s">
         <v>534</v>
@@ -9845,8 +12755,17 @@
       <c r="A530" t="s">
         <v>1</v>
       </c>
+      <c r="B530" t="s">
+        <v>577</v>
+      </c>
       <c r="C530" t="s">
         <v>215</v>
+      </c>
+      <c r="D530" t="s">
+        <v>577</v>
+      </c>
+      <c r="E530" t="s">
+        <v>577</v>
       </c>
       <c r="F530" s="3" t="s">
         <v>535</v>
@@ -9856,8 +12775,17 @@
       <c r="A531" t="s">
         <v>1</v>
       </c>
+      <c r="B531" t="s">
+        <v>577</v>
+      </c>
       <c r="C531" t="s">
         <v>215</v>
+      </c>
+      <c r="D531" t="s">
+        <v>577</v>
+      </c>
+      <c r="E531" t="s">
+        <v>577</v>
       </c>
       <c r="F531" s="3" t="s">
         <v>536</v>
@@ -9867,8 +12795,17 @@
       <c r="A532" t="s">
         <v>1</v>
       </c>
+      <c r="B532" t="s">
+        <v>577</v>
+      </c>
       <c r="C532" t="s">
         <v>215</v>
+      </c>
+      <c r="D532" t="s">
+        <v>577</v>
+      </c>
+      <c r="E532" t="s">
+        <v>577</v>
       </c>
       <c r="F532" s="3" t="s">
         <v>537</v>
@@ -9878,8 +12815,17 @@
       <c r="A533" t="s">
         <v>1</v>
       </c>
+      <c r="B533" t="s">
+        <v>577</v>
+      </c>
       <c r="C533" t="s">
         <v>215</v>
+      </c>
+      <c r="D533" t="s">
+        <v>577</v>
+      </c>
+      <c r="E533" t="s">
+        <v>577</v>
       </c>
       <c r="F533" s="3" t="s">
         <v>538</v>
@@ -9889,8 +12835,17 @@
       <c r="A534" t="s">
         <v>1</v>
       </c>
+      <c r="B534" t="s">
+        <v>577</v>
+      </c>
       <c r="C534" t="s">
         <v>215</v>
+      </c>
+      <c r="D534" t="s">
+        <v>577</v>
+      </c>
+      <c r="E534" t="s">
+        <v>577</v>
       </c>
       <c r="F534" s="3" t="s">
         <v>539</v>
@@ -9900,8 +12855,17 @@
       <c r="A535" t="s">
         <v>1</v>
       </c>
+      <c r="B535" t="s">
+        <v>577</v>
+      </c>
       <c r="C535" t="s">
         <v>215</v>
+      </c>
+      <c r="D535" t="s">
+        <v>577</v>
+      </c>
+      <c r="E535" t="s">
+        <v>577</v>
       </c>
       <c r="F535" s="3" t="s">
         <v>540</v>
@@ -9911,8 +12875,17 @@
       <c r="A536" t="s">
         <v>1</v>
       </c>
+      <c r="B536" t="s">
+        <v>577</v>
+      </c>
       <c r="C536" t="s">
         <v>215</v>
+      </c>
+      <c r="D536" t="s">
+        <v>577</v>
+      </c>
+      <c r="E536" t="s">
+        <v>577</v>
       </c>
       <c r="F536" s="3" t="s">
         <v>541</v>
@@ -9922,8 +12895,17 @@
       <c r="A537" t="s">
         <v>1</v>
       </c>
+      <c r="B537" t="s">
+        <v>577</v>
+      </c>
       <c r="C537" t="s">
         <v>215</v>
+      </c>
+      <c r="D537" t="s">
+        <v>577</v>
+      </c>
+      <c r="E537" t="s">
+        <v>577</v>
       </c>
       <c r="F537" s="3" t="s">
         <v>542</v>
@@ -9933,8 +12915,17 @@
       <c r="A538" t="s">
         <v>1</v>
       </c>
+      <c r="B538" t="s">
+        <v>577</v>
+      </c>
       <c r="C538" t="s">
         <v>215</v>
+      </c>
+      <c r="D538" t="s">
+        <v>577</v>
+      </c>
+      <c r="E538" t="s">
+        <v>577</v>
       </c>
       <c r="F538" s="3" t="s">
         <v>543</v>
@@ -9944,8 +12935,17 @@
       <c r="A539" t="s">
         <v>1</v>
       </c>
+      <c r="B539" t="s">
+        <v>577</v>
+      </c>
       <c r="C539" t="s">
         <v>215</v>
+      </c>
+      <c r="D539" t="s">
+        <v>577</v>
+      </c>
+      <c r="E539" t="s">
+        <v>577</v>
       </c>
       <c r="F539" s="3" t="s">
         <v>544</v>
@@ -9955,8 +12955,17 @@
       <c r="A540" t="s">
         <v>1</v>
       </c>
+      <c r="B540" t="s">
+        <v>577</v>
+      </c>
       <c r="C540" t="s">
         <v>215</v>
+      </c>
+      <c r="D540" t="s">
+        <v>577</v>
+      </c>
+      <c r="E540" t="s">
+        <v>577</v>
       </c>
       <c r="F540" s="3" t="s">
         <v>545</v>
@@ -9966,8 +12975,17 @@
       <c r="A541" t="s">
         <v>1</v>
       </c>
+      <c r="B541" t="s">
+        <v>577</v>
+      </c>
       <c r="C541" t="s">
         <v>215</v>
+      </c>
+      <c r="D541" t="s">
+        <v>577</v>
+      </c>
+      <c r="E541" t="s">
+        <v>577</v>
       </c>
       <c r="F541" s="3" t="s">
         <v>546</v>
@@ -9977,8 +12995,17 @@
       <c r="A542" t="s">
         <v>1</v>
       </c>
+      <c r="B542" t="s">
+        <v>577</v>
+      </c>
       <c r="C542" t="s">
         <v>215</v>
+      </c>
+      <c r="D542" t="s">
+        <v>577</v>
+      </c>
+      <c r="E542" t="s">
+        <v>577</v>
       </c>
       <c r="F542" s="3" t="s">
         <v>547</v>
@@ -9988,8 +13015,17 @@
       <c r="A543" t="s">
         <v>1</v>
       </c>
+      <c r="B543" t="s">
+        <v>577</v>
+      </c>
       <c r="C543" t="s">
         <v>215</v>
+      </c>
+      <c r="D543" t="s">
+        <v>577</v>
+      </c>
+      <c r="E543" t="s">
+        <v>577</v>
       </c>
       <c r="F543" s="3" t="s">
         <v>548</v>
@@ -9999,8 +13035,17 @@
       <c r="A544" t="s">
         <v>1</v>
       </c>
+      <c r="B544" t="s">
+        <v>577</v>
+      </c>
       <c r="C544" t="s">
         <v>215</v>
+      </c>
+      <c r="D544" t="s">
+        <v>577</v>
+      </c>
+      <c r="E544" t="s">
+        <v>577</v>
       </c>
       <c r="F544" s="3" t="s">
         <v>549</v>
@@ -10010,8 +13055,17 @@
       <c r="A545" t="s">
         <v>1</v>
       </c>
+      <c r="B545" t="s">
+        <v>577</v>
+      </c>
       <c r="C545" t="s">
         <v>215</v>
+      </c>
+      <c r="D545" t="s">
+        <v>577</v>
+      </c>
+      <c r="E545" t="s">
+        <v>577</v>
       </c>
       <c r="F545" s="3" t="s">
         <v>550</v>
@@ -10021,8 +13075,17 @@
       <c r="A546" t="s">
         <v>1</v>
       </c>
+      <c r="B546" t="s">
+        <v>577</v>
+      </c>
       <c r="C546" t="s">
         <v>215</v>
+      </c>
+      <c r="D546" t="s">
+        <v>577</v>
+      </c>
+      <c r="E546" t="s">
+        <v>577</v>
       </c>
       <c r="F546" s="3" t="s">
         <v>551</v>
@@ -10032,8 +13095,17 @@
       <c r="A547" t="s">
         <v>1</v>
       </c>
+      <c r="B547" t="s">
+        <v>577</v>
+      </c>
       <c r="C547" t="s">
         <v>215</v>
+      </c>
+      <c r="D547" t="s">
+        <v>577</v>
+      </c>
+      <c r="E547" t="s">
+        <v>577</v>
       </c>
       <c r="F547" s="3" t="s">
         <v>552</v>
@@ -10043,8 +13115,17 @@
       <c r="A548" t="s">
         <v>1</v>
       </c>
+      <c r="B548" t="s">
+        <v>577</v>
+      </c>
       <c r="C548" t="s">
         <v>215</v>
+      </c>
+      <c r="D548" t="s">
+        <v>577</v>
+      </c>
+      <c r="E548" t="s">
+        <v>577</v>
       </c>
       <c r="F548" s="3" t="s">
         <v>553</v>
@@ -10054,8 +13135,17 @@
       <c r="A549" t="s">
         <v>1</v>
       </c>
+      <c r="B549" t="s">
+        <v>577</v>
+      </c>
       <c r="C549" t="s">
         <v>215</v>
+      </c>
+      <c r="D549" t="s">
+        <v>577</v>
+      </c>
+      <c r="E549" t="s">
+        <v>577</v>
       </c>
       <c r="F549" s="3" t="s">
         <v>554</v>
@@ -10065,8 +13155,17 @@
       <c r="A550" t="s">
         <v>1</v>
       </c>
+      <c r="B550" t="s">
+        <v>577</v>
+      </c>
       <c r="C550" t="s">
         <v>215</v>
+      </c>
+      <c r="D550" t="s">
+        <v>577</v>
+      </c>
+      <c r="E550" t="s">
+        <v>577</v>
       </c>
       <c r="F550" s="3" t="s">
         <v>555</v>
@@ -10076,8 +13175,17 @@
       <c r="A551" t="s">
         <v>1</v>
       </c>
+      <c r="B551" t="s">
+        <v>577</v>
+      </c>
       <c r="C551" t="s">
         <v>215</v>
+      </c>
+      <c r="D551" t="s">
+        <v>577</v>
+      </c>
+      <c r="E551" t="s">
+        <v>577</v>
       </c>
       <c r="F551" s="3" t="s">
         <v>556</v>
@@ -10087,8 +13195,17 @@
       <c r="A552" t="s">
         <v>1</v>
       </c>
+      <c r="B552" t="s">
+        <v>577</v>
+      </c>
       <c r="C552" t="s">
         <v>215</v>
+      </c>
+      <c r="D552" t="s">
+        <v>577</v>
+      </c>
+      <c r="E552" t="s">
+        <v>577</v>
       </c>
       <c r="F552" s="3" t="s">
         <v>557</v>
@@ -10098,8 +13215,17 @@
       <c r="A553" t="s">
         <v>1</v>
       </c>
+      <c r="B553" t="s">
+        <v>577</v>
+      </c>
       <c r="C553" t="s">
         <v>215</v>
+      </c>
+      <c r="D553" t="s">
+        <v>577</v>
+      </c>
+      <c r="E553" t="s">
+        <v>577</v>
       </c>
       <c r="F553" s="3" t="s">
         <v>558</v>
@@ -10109,8 +13235,17 @@
       <c r="A554" t="s">
         <v>1</v>
       </c>
+      <c r="B554" t="s">
+        <v>577</v>
+      </c>
       <c r="C554" t="s">
         <v>215</v>
+      </c>
+      <c r="D554" t="s">
+        <v>577</v>
+      </c>
+      <c r="E554" t="s">
+        <v>577</v>
       </c>
       <c r="F554" s="3" t="s">
         <v>559</v>
@@ -10120,8 +13255,17 @@
       <c r="A555" t="s">
         <v>1</v>
       </c>
+      <c r="B555" t="s">
+        <v>577</v>
+      </c>
       <c r="C555" t="s">
         <v>215</v>
+      </c>
+      <c r="D555" t="s">
+        <v>577</v>
+      </c>
+      <c r="E555" t="s">
+        <v>577</v>
       </c>
       <c r="F555" s="3" t="s">
         <v>560</v>
@@ -10131,8 +13275,17 @@
       <c r="A556" t="s">
         <v>1</v>
       </c>
+      <c r="B556" t="s">
+        <v>577</v>
+      </c>
       <c r="C556" t="s">
         <v>215</v>
+      </c>
+      <c r="D556" t="s">
+        <v>577</v>
+      </c>
+      <c r="E556" t="s">
+        <v>577</v>
       </c>
       <c r="F556" s="3" t="s">
         <v>561</v>
@@ -10142,8 +13295,17 @@
       <c r="A557" t="s">
         <v>1</v>
       </c>
+      <c r="B557" t="s">
+        <v>577</v>
+      </c>
       <c r="C557" t="s">
         <v>215</v>
+      </c>
+      <c r="D557" t="s">
+        <v>577</v>
+      </c>
+      <c r="E557" t="s">
+        <v>577</v>
       </c>
       <c r="F557" s="3" t="s">
         <v>562</v>
@@ -10153,8 +13315,17 @@
       <c r="A558" t="s">
         <v>1</v>
       </c>
+      <c r="B558" t="s">
+        <v>577</v>
+      </c>
       <c r="C558" t="s">
         <v>215</v>
+      </c>
+      <c r="D558" t="s">
+        <v>577</v>
+      </c>
+      <c r="E558" t="s">
+        <v>577</v>
       </c>
       <c r="F558" s="3" t="s">
         <v>563</v>
@@ -10164,8 +13335,17 @@
       <c r="A559" t="s">
         <v>1</v>
       </c>
+      <c r="B559" t="s">
+        <v>577</v>
+      </c>
       <c r="C559" t="s">
         <v>215</v>
+      </c>
+      <c r="D559" t="s">
+        <v>577</v>
+      </c>
+      <c r="E559" t="s">
+        <v>577</v>
       </c>
       <c r="F559" s="3" t="s">
         <v>564</v>
@@ -10175,8 +13355,17 @@
       <c r="A560" t="s">
         <v>1</v>
       </c>
+      <c r="B560" t="s">
+        <v>577</v>
+      </c>
       <c r="C560" t="s">
         <v>215</v>
+      </c>
+      <c r="D560" t="s">
+        <v>577</v>
+      </c>
+      <c r="E560" t="s">
+        <v>577</v>
       </c>
       <c r="F560" s="3" t="s">
         <v>565</v>
@@ -10186,8 +13375,17 @@
       <c r="A561" t="s">
         <v>1</v>
       </c>
+      <c r="B561" t="s">
+        <v>577</v>
+      </c>
       <c r="C561" t="s">
         <v>215</v>
+      </c>
+      <c r="D561" t="s">
+        <v>577</v>
+      </c>
+      <c r="E561" t="s">
+        <v>577</v>
       </c>
       <c r="F561" s="3" t="s">
         <v>566</v>
@@ -10197,8 +13395,17 @@
       <c r="A562" t="s">
         <v>1</v>
       </c>
+      <c r="B562" t="s">
+        <v>577</v>
+      </c>
       <c r="C562" t="s">
         <v>215</v>
+      </c>
+      <c r="D562" t="s">
+        <v>577</v>
+      </c>
+      <c r="E562" t="s">
+        <v>577</v>
       </c>
       <c r="F562" s="3" t="s">
         <v>567</v>
@@ -10208,8 +13415,17 @@
       <c r="A563" t="s">
         <v>1</v>
       </c>
+      <c r="B563" t="s">
+        <v>577</v>
+      </c>
       <c r="C563" t="s">
         <v>215</v>
+      </c>
+      <c r="D563" t="s">
+        <v>577</v>
+      </c>
+      <c r="E563" t="s">
+        <v>577</v>
       </c>
       <c r="F563" s="3" t="s">
         <v>568</v>
@@ -10219,8 +13435,17 @@
       <c r="A564" t="s">
         <v>1</v>
       </c>
+      <c r="B564" t="s">
+        <v>577</v>
+      </c>
       <c r="C564" t="s">
         <v>215</v>
+      </c>
+      <c r="D564" t="s">
+        <v>577</v>
+      </c>
+      <c r="E564" t="s">
+        <v>577</v>
       </c>
       <c r="F564" s="3" t="s">
         <v>569</v>
@@ -10230,8 +13455,17 @@
       <c r="A565" t="s">
         <v>1</v>
       </c>
+      <c r="B565" t="s">
+        <v>577</v>
+      </c>
       <c r="C565" t="s">
         <v>215</v>
+      </c>
+      <c r="D565" t="s">
+        <v>577</v>
+      </c>
+      <c r="E565" t="s">
+        <v>577</v>
       </c>
       <c r="F565" s="3" t="s">
         <v>570</v>
@@ -10241,7 +13475,7 @@
       <c r="F566" s="3"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:F1048576">
+  <conditionalFormatting sqref="F1:F1048576 G1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
